--- a/PDF_COMAPRISON.xlsx
+++ b/PDF_COMAPRISON.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pdfdifftool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pdfdifftool\pdf-diff-compare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA6B77B-5AE5-4330-BBA9-2163AEC045C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5725FD-C5BF-43DB-8D1A-C2D0C0B47CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$827</definedName>
   </definedNames>
-  <calcPr calcId="152511" refMode="R1C1"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -5081,13 +5081,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5368,7 +5365,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C847"/>
+  <dimension ref="A1:C827"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -7596,10 +7593,10 @@
       <c r="A202" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B202" s="4" t="s">
+      <c r="B202" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="C202" s="4" t="s">
+      <c r="C202" s="1" t="s">
         <v>609</v>
       </c>
     </row>
@@ -7607,10 +7604,10 @@
       <c r="A203" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B203" s="4" t="s">
+      <c r="B203" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="C203" s="4" t="s">
+      <c r="C203" s="1" t="s">
         <v>611</v>
       </c>
     </row>
@@ -7618,10 +7615,10 @@
       <c r="A204" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B204" s="4" t="s">
+      <c r="B204" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="C204" s="4" t="s">
+      <c r="C204" s="1" t="s">
         <v>613</v>
       </c>
     </row>
@@ -7629,10 +7626,10 @@
       <c r="A205" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B205" s="4" t="s">
+      <c r="B205" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="C205" s="4" t="s">
+      <c r="C205" s="1" t="s">
         <v>615</v>
       </c>
     </row>
@@ -7640,10 +7637,10 @@
       <c r="A206" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B206" s="4" t="s">
+      <c r="B206" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="C206" s="4" t="s">
+      <c r="C206" s="1" t="s">
         <v>617</v>
       </c>
     </row>
@@ -7651,10 +7648,10 @@
       <c r="A207" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B207" s="4" t="s">
+      <c r="B207" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="C207" s="4" t="s">
+      <c r="C207" s="1" t="s">
         <v>619</v>
       </c>
     </row>
@@ -7662,10 +7659,10 @@
       <c r="A208" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B208" s="4" t="s">
+      <c r="B208" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="C208" s="4" t="s">
+      <c r="C208" s="1" t="s">
         <v>621</v>
       </c>
     </row>
@@ -7673,10 +7670,10 @@
       <c r="A209" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B209" s="4" t="s">
+      <c r="B209" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="C209" s="4" t="s">
+      <c r="C209" s="1" t="s">
         <v>623</v>
       </c>
     </row>
@@ -7684,10 +7681,10 @@
       <c r="A210" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B210" s="4" t="s">
+      <c r="B210" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="C210" s="4" t="s">
+      <c r="C210" s="1" t="s">
         <v>625</v>
       </c>
     </row>
@@ -7695,10 +7692,10 @@
       <c r="A211" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B211" s="4" t="s">
+      <c r="B211" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="C211" s="4" t="s">
+      <c r="C211" s="1" t="s">
         <v>627</v>
       </c>
     </row>
@@ -7706,10 +7703,10 @@
       <c r="A212" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B212" s="4" t="s">
+      <c r="B212" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="C212" s="4" t="s">
+      <c r="C212" s="1" t="s">
         <v>629</v>
       </c>
     </row>
@@ -7717,10 +7714,10 @@
       <c r="A213" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B213" s="4" t="s">
+      <c r="B213" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="C213" s="4" t="s">
+      <c r="C213" s="1" t="s">
         <v>631</v>
       </c>
     </row>
@@ -7728,10 +7725,10 @@
       <c r="A214" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B214" s="4" t="s">
+      <c r="B214" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="C214" s="4" t="s">
+      <c r="C214" s="1" t="s">
         <v>633</v>
       </c>
     </row>
@@ -7739,10 +7736,10 @@
       <c r="A215" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B215" s="4" t="s">
+      <c r="B215" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="C215" s="4" t="s">
+      <c r="C215" s="1" t="s">
         <v>635</v>
       </c>
     </row>
@@ -7750,10 +7747,10 @@
       <c r="A216" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B216" s="4" t="s">
+      <c r="B216" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="C216" s="4" t="s">
+      <c r="C216" s="1" t="s">
         <v>637</v>
       </c>
     </row>
@@ -7761,10 +7758,10 @@
       <c r="A217" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B217" s="4" t="s">
+      <c r="B217" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="C217" s="4" t="s">
+      <c r="C217" s="1" t="s">
         <v>639</v>
       </c>
     </row>
@@ -7772,10 +7769,10 @@
       <c r="A218" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B218" s="4" t="s">
+      <c r="B218" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="C218" s="4" t="s">
+      <c r="C218" s="1" t="s">
         <v>641</v>
       </c>
     </row>
@@ -7783,10 +7780,10 @@
       <c r="A219" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B219" s="4" t="s">
+      <c r="B219" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="C219" s="4" t="s">
+      <c r="C219" s="1" t="s">
         <v>643</v>
       </c>
     </row>
@@ -7794,10 +7791,10 @@
       <c r="A220" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B220" s="4" t="s">
+      <c r="B220" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="C220" s="4" t="s">
+      <c r="C220" s="1" t="s">
         <v>645</v>
       </c>
     </row>
@@ -7805,10 +7802,10 @@
       <c r="A221" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B221" s="4" t="s">
+      <c r="B221" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="C221" s="4" t="s">
+      <c r="C221" s="1" t="s">
         <v>647</v>
       </c>
     </row>
@@ -7816,10 +7813,10 @@
       <c r="A222" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B222" s="4" t="s">
+      <c r="B222" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="C222" s="4" t="s">
+      <c r="C222" s="1" t="s">
         <v>649</v>
       </c>
     </row>
@@ -7827,10 +7824,10 @@
       <c r="A223" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B223" s="4" t="s">
+      <c r="B223" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="C223" s="4" t="s">
+      <c r="C223" s="1" t="s">
         <v>651</v>
       </c>
     </row>
@@ -7838,10 +7835,10 @@
       <c r="A224" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B224" s="4" t="s">
+      <c r="B224" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="C224" s="4" t="s">
+      <c r="C224" s="1" t="s">
         <v>653</v>
       </c>
     </row>
@@ -7849,10 +7846,10 @@
       <c r="A225" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B225" s="4" t="s">
+      <c r="B225" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="C225" s="4" t="s">
+      <c r="C225" s="1" t="s">
         <v>655</v>
       </c>
     </row>
@@ -7860,10 +7857,10 @@
       <c r="A226" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B226" s="4" t="s">
+      <c r="B226" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="C226" s="4" t="s">
+      <c r="C226" s="1" t="s">
         <v>657</v>
       </c>
     </row>
@@ -7871,10 +7868,10 @@
       <c r="A227" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B227" s="4" t="s">
+      <c r="B227" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="C227" s="4" t="s">
+      <c r="C227" s="1" t="s">
         <v>659</v>
       </c>
     </row>
@@ -7882,10 +7879,10 @@
       <c r="A228" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B228" s="4" t="s">
+      <c r="B228" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="C228" s="4" t="s">
+      <c r="C228" s="1" t="s">
         <v>661</v>
       </c>
     </row>
@@ -7893,10 +7890,10 @@
       <c r="A229" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B229" s="4" t="s">
+      <c r="B229" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="C229" s="4" t="s">
+      <c r="C229" s="1" t="s">
         <v>663</v>
       </c>
     </row>
@@ -7904,10 +7901,10 @@
       <c r="A230" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B230" s="4" t="s">
+      <c r="B230" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="C230" s="4" t="s">
+      <c r="C230" s="1" t="s">
         <v>665</v>
       </c>
     </row>
@@ -7915,10 +7912,10 @@
       <c r="A231" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B231" s="4" t="s">
+      <c r="B231" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="C231" s="4" t="s">
+      <c r="C231" s="1" t="s">
         <v>667</v>
       </c>
     </row>
@@ -7926,10 +7923,10 @@
       <c r="A232" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B232" s="4" t="s">
+      <c r="B232" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="C232" s="4" t="s">
+      <c r="C232" s="1" t="s">
         <v>669</v>
       </c>
     </row>
@@ -7937,10 +7934,10 @@
       <c r="A233" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B233" s="4" t="s">
+      <c r="B233" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="C233" s="4" t="s">
+      <c r="C233" s="1" t="s">
         <v>671</v>
       </c>
     </row>
@@ -7948,10 +7945,10 @@
       <c r="A234" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B234" s="4" t="s">
+      <c r="B234" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="C234" s="4" t="s">
+      <c r="C234" s="1" t="s">
         <v>673</v>
       </c>
     </row>
@@ -7959,10 +7956,10 @@
       <c r="A235" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B235" s="4" t="s">
+      <c r="B235" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="C235" s="4" t="s">
+      <c r="C235" s="1" t="s">
         <v>675</v>
       </c>
     </row>
@@ -7970,10 +7967,10 @@
       <c r="A236" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B236" s="4" t="s">
+      <c r="B236" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="C236" s="4" t="s">
+      <c r="C236" s="1" t="s">
         <v>677</v>
       </c>
     </row>
@@ -7981,10 +7978,10 @@
       <c r="A237" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B237" s="4" t="s">
+      <c r="B237" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="C237" s="4" t="s">
+      <c r="C237" s="1" t="s">
         <v>679</v>
       </c>
     </row>
@@ -7992,10 +7989,10 @@
       <c r="A238" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B238" s="4" t="s">
+      <c r="B238" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="C238" s="4" t="s">
+      <c r="C238" s="1" t="s">
         <v>681</v>
       </c>
     </row>
@@ -8003,10 +8000,10 @@
       <c r="A239" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B239" s="4" t="s">
+      <c r="B239" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="C239" s="4" t="s">
+      <c r="C239" s="1" t="s">
         <v>683</v>
       </c>
     </row>
@@ -8014,10 +8011,10 @@
       <c r="A240" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B240" s="4" t="s">
+      <c r="B240" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="C240" s="4" t="s">
+      <c r="C240" s="1" t="s">
         <v>685</v>
       </c>
     </row>
@@ -8025,10 +8022,10 @@
       <c r="A241" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B241" s="4" t="s">
+      <c r="B241" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="C241" s="4" t="s">
+      <c r="C241" s="1" t="s">
         <v>687</v>
       </c>
     </row>
@@ -8036,10 +8033,10 @@
       <c r="A242" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B242" s="4" t="s">
+      <c r="B242" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="C242" s="4" t="s">
+      <c r="C242" s="1" t="s">
         <v>689</v>
       </c>
     </row>
@@ -8047,10 +8044,10 @@
       <c r="A243" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B243" s="4" t="s">
+      <c r="B243" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="C243" s="4" t="s">
+      <c r="C243" s="1" t="s">
         <v>691</v>
       </c>
     </row>
@@ -8058,10 +8055,10 @@
       <c r="A244" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B244" s="4" t="s">
+      <c r="B244" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="C244" s="4" t="s">
+      <c r="C244" s="1" t="s">
         <v>693</v>
       </c>
     </row>
@@ -8069,10 +8066,10 @@
       <c r="A245" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B245" s="4" t="s">
+      <c r="B245" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="C245" s="4" t="s">
+      <c r="C245" s="1" t="s">
         <v>695</v>
       </c>
     </row>
@@ -8080,10 +8077,10 @@
       <c r="A246" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B246" s="4" t="s">
+      <c r="B246" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="C246" s="4" t="s">
+      <c r="C246" s="1" t="s">
         <v>697</v>
       </c>
     </row>
@@ -8091,10 +8088,10 @@
       <c r="A247" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B247" s="4" t="s">
+      <c r="B247" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="C247" s="4" t="s">
+      <c r="C247" s="1" t="s">
         <v>699</v>
       </c>
     </row>
@@ -8102,10 +8099,10 @@
       <c r="A248" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B248" s="4" t="s">
+      <c r="B248" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="C248" s="4" t="s">
+      <c r="C248" s="1" t="s">
         <v>701</v>
       </c>
     </row>
@@ -8113,10 +8110,10 @@
       <c r="A249" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B249" s="4" t="s">
+      <c r="B249" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="C249" s="4" t="s">
+      <c r="C249" s="1" t="s">
         <v>703</v>
       </c>
     </row>
@@ -8124,10 +8121,10 @@
       <c r="A250" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B250" s="4" t="s">
+      <c r="B250" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="C250" s="4" t="s">
+      <c r="C250" s="1" t="s">
         <v>705</v>
       </c>
     </row>
@@ -8135,10 +8132,10 @@
       <c r="A251" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B251" s="4" t="s">
+      <c r="B251" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="C251" s="4" t="s">
+      <c r="C251" s="1" t="s">
         <v>707</v>
       </c>
     </row>
@@ -8146,10 +8143,10 @@
       <c r="A252" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B252" s="4" t="s">
+      <c r="B252" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="C252" s="4" t="s">
+      <c r="C252" s="1" t="s">
         <v>709</v>
       </c>
     </row>
@@ -8157,10 +8154,10 @@
       <c r="A253" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B253" s="4" t="s">
+      <c r="B253" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="C253" s="4" t="s">
+      <c r="C253" s="1" t="s">
         <v>711</v>
       </c>
     </row>
@@ -8168,10 +8165,10 @@
       <c r="A254" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B254" s="4" t="s">
+      <c r="B254" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="C254" s="4" t="s">
+      <c r="C254" s="1" t="s">
         <v>713</v>
       </c>
     </row>
@@ -8179,10 +8176,10 @@
       <c r="A255" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B255" s="4" t="s">
+      <c r="B255" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="C255" s="4" t="s">
+      <c r="C255" s="1" t="s">
         <v>715</v>
       </c>
     </row>
@@ -8190,10 +8187,10 @@
       <c r="A256" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B256" s="4" t="s">
+      <c r="B256" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="C256" s="4" t="s">
+      <c r="C256" s="1" t="s">
         <v>717</v>
       </c>
     </row>
@@ -8201,10 +8198,10 @@
       <c r="A257" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B257" s="4" t="s">
+      <c r="B257" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="C257" s="4" t="s">
+      <c r="C257" s="1" t="s">
         <v>719</v>
       </c>
     </row>
@@ -8212,10 +8209,10 @@
       <c r="A258" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B258" s="4" t="s">
+      <c r="B258" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="C258" s="4" t="s">
+      <c r="C258" s="1" t="s">
         <v>721</v>
       </c>
     </row>
@@ -8223,10 +8220,10 @@
       <c r="A259" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B259" s="4" t="s">
+      <c r="B259" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="C259" s="4" t="s">
+      <c r="C259" s="1" t="s">
         <v>723</v>
       </c>
     </row>
@@ -8234,10 +8231,10 @@
       <c r="A260" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B260" s="4" t="s">
+      <c r="B260" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="C260" s="4" t="s">
+      <c r="C260" s="1" t="s">
         <v>725</v>
       </c>
     </row>
@@ -8245,10 +8242,10 @@
       <c r="A261" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B261" s="4" t="s">
+      <c r="B261" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="C261" s="4" t="s">
+      <c r="C261" s="1" t="s">
         <v>727</v>
       </c>
     </row>
@@ -8256,10 +8253,10 @@
       <c r="A262" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B262" s="4" t="s">
+      <c r="B262" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="C262" s="4" t="s">
+      <c r="C262" s="1" t="s">
         <v>729</v>
       </c>
     </row>
@@ -8267,10 +8264,10 @@
       <c r="A263" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B263" s="4" t="s">
+      <c r="B263" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="C263" s="4" t="s">
+      <c r="C263" s="1" t="s">
         <v>731</v>
       </c>
     </row>
@@ -8278,10 +8275,10 @@
       <c r="A264" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B264" s="4" t="s">
+      <c r="B264" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="C264" s="4" t="s">
+      <c r="C264" s="1" t="s">
         <v>733</v>
       </c>
     </row>
@@ -8289,10 +8286,10 @@
       <c r="A265" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B265" s="4" t="s">
+      <c r="B265" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="C265" s="4" t="s">
+      <c r="C265" s="1" t="s">
         <v>735</v>
       </c>
     </row>
@@ -8300,10 +8297,10 @@
       <c r="A266" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B266" s="4" t="s">
+      <c r="B266" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="C266" s="4" t="s">
+      <c r="C266" s="1" t="s">
         <v>737</v>
       </c>
     </row>
@@ -8311,10 +8308,10 @@
       <c r="A267" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B267" s="4" t="s">
+      <c r="B267" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="C267" s="4" t="s">
+      <c r="C267" s="1" t="s">
         <v>739</v>
       </c>
     </row>
@@ -8322,10 +8319,10 @@
       <c r="A268" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B268" s="4" t="s">
+      <c r="B268" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="C268" s="4" t="s">
+      <c r="C268" s="1" t="s">
         <v>741</v>
       </c>
     </row>
@@ -8333,10 +8330,10 @@
       <c r="A269" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B269" s="4" t="s">
+      <c r="B269" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="C269" s="4" t="s">
+      <c r="C269" s="1" t="s">
         <v>743</v>
       </c>
     </row>
@@ -8344,10 +8341,10 @@
       <c r="A270" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B270" s="4" t="s">
+      <c r="B270" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="C270" s="4" t="s">
+      <c r="C270" s="1" t="s">
         <v>745</v>
       </c>
     </row>
@@ -8355,10 +8352,10 @@
       <c r="A271" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B271" s="4" t="s">
+      <c r="B271" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="C271" s="4" t="s">
+      <c r="C271" s="1" t="s">
         <v>747</v>
       </c>
     </row>
@@ -8366,10 +8363,10 @@
       <c r="A272" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B272" s="4" t="s">
+      <c r="B272" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="C272" s="4" t="s">
+      <c r="C272" s="1" t="s">
         <v>749</v>
       </c>
     </row>
@@ -8377,10 +8374,10 @@
       <c r="A273" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B273" s="4" t="s">
+      <c r="B273" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="C273" s="4" t="s">
+      <c r="C273" s="1" t="s">
         <v>751</v>
       </c>
     </row>
@@ -8388,10 +8385,10 @@
       <c r="A274" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B274" s="4" t="s">
+      <c r="B274" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="C274" s="4" t="s">
+      <c r="C274" s="1" t="s">
         <v>753</v>
       </c>
     </row>
@@ -8399,10 +8396,10 @@
       <c r="A275" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B275" s="4" t="s">
+      <c r="B275" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="C275" s="4" t="s">
+      <c r="C275" s="1" t="s">
         <v>755</v>
       </c>
     </row>
@@ -8410,10 +8407,10 @@
       <c r="A276" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B276" s="4" t="s">
+      <c r="B276" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="C276" s="4" t="s">
+      <c r="C276" s="1" t="s">
         <v>757</v>
       </c>
     </row>
@@ -8421,10 +8418,10 @@
       <c r="A277" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B277" s="4" t="s">
+      <c r="B277" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="C277" s="4" t="s">
+      <c r="C277" s="1" t="s">
         <v>759</v>
       </c>
     </row>
@@ -8432,10 +8429,10 @@
       <c r="A278" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B278" s="4" t="s">
+      <c r="B278" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="C278" s="4" t="s">
+      <c r="C278" s="1" t="s">
         <v>761</v>
       </c>
     </row>
@@ -8443,10 +8440,10 @@
       <c r="A279" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B279" s="4" t="s">
+      <c r="B279" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="C279" s="4" t="s">
+      <c r="C279" s="1" t="s">
         <v>763</v>
       </c>
     </row>
@@ -8454,10 +8451,10 @@
       <c r="A280" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B280" s="4" t="s">
+      <c r="B280" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="C280" s="4" t="s">
+      <c r="C280" s="1" t="s">
         <v>765</v>
       </c>
     </row>
@@ -8465,10 +8462,10 @@
       <c r="A281" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B281" s="4" t="s">
+      <c r="B281" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="C281" s="4" t="s">
+      <c r="C281" s="1" t="s">
         <v>767</v>
       </c>
     </row>
@@ -8476,10 +8473,10 @@
       <c r="A282" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B282" s="4" t="s">
+      <c r="B282" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="C282" s="4" t="s">
+      <c r="C282" s="1" t="s">
         <v>769</v>
       </c>
     </row>
@@ -8487,10 +8484,10 @@
       <c r="A283" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B283" s="4" t="s">
+      <c r="B283" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="C283" s="4" t="s">
+      <c r="C283" s="1" t="s">
         <v>771</v>
       </c>
     </row>
@@ -8498,10 +8495,10 @@
       <c r="A284" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B284" s="4" t="s">
+      <c r="B284" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="C284" s="4" t="s">
+      <c r="C284" s="1" t="s">
         <v>773</v>
       </c>
     </row>
@@ -8509,10 +8506,10 @@
       <c r="A285" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B285" s="4" t="s">
+      <c r="B285" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="C285" s="4" t="s">
+      <c r="C285" s="1" t="s">
         <v>775</v>
       </c>
     </row>
@@ -8520,10 +8517,10 @@
       <c r="A286" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B286" s="4" t="s">
+      <c r="B286" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="C286" s="4" t="s">
+      <c r="C286" s="1" t="s">
         <v>777</v>
       </c>
     </row>
@@ -8531,10 +8528,10 @@
       <c r="A287" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B287" s="4" t="s">
+      <c r="B287" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="C287" s="4" t="s">
+      <c r="C287" s="1" t="s">
         <v>779</v>
       </c>
     </row>
@@ -8542,10 +8539,10 @@
       <c r="A288" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B288" s="4" t="s">
+      <c r="B288" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="C288" s="4" t="s">
+      <c r="C288" s="1" t="s">
         <v>781</v>
       </c>
     </row>
@@ -8553,10 +8550,10 @@
       <c r="A289" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B289" s="4" t="s">
+      <c r="B289" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="C289" s="4" t="s">
+      <c r="C289" s="1" t="s">
         <v>783</v>
       </c>
     </row>
@@ -8564,10 +8561,10 @@
       <c r="A290" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B290" s="4" t="s">
+      <c r="B290" s="1" t="s">
         <v>784</v>
       </c>
-      <c r="C290" s="4" t="s">
+      <c r="C290" s="1" t="s">
         <v>785</v>
       </c>
     </row>
@@ -8575,10 +8572,10 @@
       <c r="A291" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B291" s="4" t="s">
+      <c r="B291" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="C291" s="4" t="s">
+      <c r="C291" s="1" t="s">
         <v>787</v>
       </c>
     </row>
@@ -8586,10 +8583,10 @@
       <c r="A292" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B292" s="4" t="s">
+      <c r="B292" s="1" t="s">
         <v>788</v>
       </c>
-      <c r="C292" s="4" t="s">
+      <c r="C292" s="1" t="s">
         <v>789</v>
       </c>
     </row>
@@ -8597,10 +8594,10 @@
       <c r="A293" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B293" s="4" t="s">
+      <c r="B293" s="1" t="s">
         <v>790</v>
       </c>
-      <c r="C293" s="4" t="s">
+      <c r="C293" s="1" t="s">
         <v>791</v>
       </c>
     </row>
@@ -8608,10 +8605,10 @@
       <c r="A294" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B294" s="4" t="s">
+      <c r="B294" s="1" t="s">
         <v>792</v>
       </c>
-      <c r="C294" s="4" t="s">
+      <c r="C294" s="1" t="s">
         <v>793</v>
       </c>
     </row>
@@ -8619,10 +8616,10 @@
       <c r="A295" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B295" s="4" t="s">
+      <c r="B295" s="1" t="s">
         <v>794</v>
       </c>
-      <c r="C295" s="4" t="s">
+      <c r="C295" s="1" t="s">
         <v>795</v>
       </c>
     </row>
@@ -8630,10 +8627,10 @@
       <c r="A296" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B296" s="4" t="s">
+      <c r="B296" s="1" t="s">
         <v>796</v>
       </c>
-      <c r="C296" s="4" t="s">
+      <c r="C296" s="1" t="s">
         <v>797</v>
       </c>
     </row>
@@ -8641,10 +8638,10 @@
       <c r="A297" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B297" s="4" t="s">
+      <c r="B297" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="C297" s="4" t="s">
+      <c r="C297" s="1" t="s">
         <v>799</v>
       </c>
     </row>
@@ -8652,10 +8649,10 @@
       <c r="A298" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B298" s="4" t="s">
+      <c r="B298" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="C298" s="4" t="s">
+      <c r="C298" s="1" t="s">
         <v>801</v>
       </c>
     </row>
@@ -9752,10 +9749,10 @@
       <c r="A398" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B398" s="4" t="s">
+      <c r="B398" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="C398" s="4" t="s">
+      <c r="C398" s="1" t="s">
         <v>408</v>
       </c>
     </row>
@@ -9763,10 +9760,10 @@
       <c r="A399" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B399" s="4" t="s">
+      <c r="B399" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="C399" s="4" t="s">
+      <c r="C399" s="1" t="s">
         <v>410</v>
       </c>
     </row>
@@ -9774,10 +9771,10 @@
       <c r="A400" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B400" s="4" t="s">
+      <c r="B400" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="C400" s="4" t="s">
+      <c r="C400" s="1" t="s">
         <v>412</v>
       </c>
     </row>
@@ -9785,10 +9782,10 @@
       <c r="A401" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B401" s="4" t="s">
+      <c r="B401" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="C401" s="4" t="s">
+      <c r="C401" s="1" t="s">
         <v>414</v>
       </c>
     </row>
@@ -9796,10 +9793,10 @@
       <c r="A402" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B402" s="4" t="s">
+      <c r="B402" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="C402" s="4" t="s">
+      <c r="C402" s="1" t="s">
         <v>416</v>
       </c>
     </row>
@@ -9807,10 +9804,10 @@
       <c r="A403" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B403" s="4" t="s">
+      <c r="B403" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="C403" s="4" t="s">
+      <c r="C403" s="1" t="s">
         <v>418</v>
       </c>
     </row>
@@ -9818,10 +9815,10 @@
       <c r="A404" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B404" s="4" t="s">
+      <c r="B404" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="C404" s="4" t="s">
+      <c r="C404" s="1" t="s">
         <v>420</v>
       </c>
     </row>
@@ -9829,10 +9826,10 @@
       <c r="A405" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B405" s="4" t="s">
+      <c r="B405" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="C405" s="4" t="s">
+      <c r="C405" s="1" t="s">
         <v>422</v>
       </c>
     </row>
@@ -9840,10 +9837,10 @@
       <c r="A406" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B406" s="4" t="s">
+      <c r="B406" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="C406" s="4" t="s">
+      <c r="C406" s="1" t="s">
         <v>424</v>
       </c>
     </row>
@@ -9851,10 +9848,10 @@
       <c r="A407" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B407" s="4" t="s">
+      <c r="B407" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="C407" s="4" t="s">
+      <c r="C407" s="1" t="s">
         <v>426</v>
       </c>
     </row>
@@ -9862,10 +9859,10 @@
       <c r="A408" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B408" s="4" t="s">
+      <c r="B408" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="C408" s="4" t="s">
+      <c r="C408" s="1" t="s">
         <v>428</v>
       </c>
     </row>
@@ -9873,10 +9870,10 @@
       <c r="A409" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B409" s="4" t="s">
+      <c r="B409" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="C409" s="4" t="s">
+      <c r="C409" s="1" t="s">
         <v>430</v>
       </c>
     </row>
@@ -9884,10 +9881,10 @@
       <c r="A410" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B410" s="4" t="s">
+      <c r="B410" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="C410" s="4" t="s">
+      <c r="C410" s="1" t="s">
         <v>432</v>
       </c>
     </row>
@@ -9895,10 +9892,10 @@
       <c r="A411" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B411" s="4" t="s">
+      <c r="B411" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="C411" s="4" t="s">
+      <c r="C411" s="1" t="s">
         <v>434</v>
       </c>
     </row>
@@ -9906,10 +9903,10 @@
       <c r="A412" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B412" s="4" t="s">
+      <c r="B412" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="C412" s="4" t="s">
+      <c r="C412" s="1" t="s">
         <v>436</v>
       </c>
     </row>
@@ -9917,10 +9914,10 @@
       <c r="A413" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B413" s="4" t="s">
+      <c r="B413" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="C413" s="4" t="s">
+      <c r="C413" s="1" t="s">
         <v>438</v>
       </c>
     </row>
@@ -9928,10 +9925,10 @@
       <c r="A414" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B414" s="4" t="s">
+      <c r="B414" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="C414" s="4" t="s">
+      <c r="C414" s="1" t="s">
         <v>440</v>
       </c>
     </row>
@@ -9939,10 +9936,10 @@
       <c r="A415" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B415" s="4" t="s">
+      <c r="B415" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="C415" s="4" t="s">
+      <c r="C415" s="1" t="s">
         <v>442</v>
       </c>
     </row>
@@ -9950,10 +9947,10 @@
       <c r="A416" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B416" s="4" t="s">
+      <c r="B416" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="C416" s="4" t="s">
+      <c r="C416" s="1" t="s">
         <v>444</v>
       </c>
     </row>
@@ -9961,10 +9958,10 @@
       <c r="A417" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B417" s="4" t="s">
+      <c r="B417" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="C417" s="4" t="s">
+      <c r="C417" s="1" t="s">
         <v>446</v>
       </c>
     </row>
@@ -9972,10 +9969,10 @@
       <c r="A418" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B418" s="4" t="s">
+      <c r="B418" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="C418" s="4" t="s">
+      <c r="C418" s="1" t="s">
         <v>448</v>
       </c>
     </row>
@@ -9983,10 +9980,10 @@
       <c r="A419" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B419" s="4" t="s">
+      <c r="B419" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="C419" s="4" t="s">
+      <c r="C419" s="1" t="s">
         <v>450</v>
       </c>
     </row>
@@ -9994,10 +9991,10 @@
       <c r="A420" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B420" s="4" t="s">
+      <c r="B420" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="C420" s="4" t="s">
+      <c r="C420" s="1" t="s">
         <v>452</v>
       </c>
     </row>
@@ -10005,10 +10002,10 @@
       <c r="A421" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B421" s="4" t="s">
+      <c r="B421" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="C421" s="4" t="s">
+      <c r="C421" s="1" t="s">
         <v>454</v>
       </c>
     </row>
@@ -10016,10 +10013,10 @@
       <c r="A422" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B422" s="4" t="s">
+      <c r="B422" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="C422" s="4" t="s">
+      <c r="C422" s="1" t="s">
         <v>456</v>
       </c>
     </row>
@@ -10027,10 +10024,10 @@
       <c r="A423" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B423" s="4" t="s">
+      <c r="B423" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="C423" s="4" t="s">
+      <c r="C423" s="1" t="s">
         <v>458</v>
       </c>
     </row>
@@ -10038,10 +10035,10 @@
       <c r="A424" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B424" s="4" t="s">
+      <c r="B424" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="C424" s="4" t="s">
+      <c r="C424" s="1" t="s">
         <v>460</v>
       </c>
     </row>
@@ -10049,10 +10046,10 @@
       <c r="A425" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B425" s="4" t="s">
+      <c r="B425" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="C425" s="4" t="s">
+      <c r="C425" s="1" t="s">
         <v>462</v>
       </c>
     </row>
@@ -10060,10 +10057,10 @@
       <c r="A426" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B426" s="4" t="s">
+      <c r="B426" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="C426" s="4" t="s">
+      <c r="C426" s="1" t="s">
         <v>464</v>
       </c>
     </row>
@@ -10071,10 +10068,10 @@
       <c r="A427" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B427" s="4" t="s">
+      <c r="B427" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="C427" s="4" t="s">
+      <c r="C427" s="1" t="s">
         <v>466</v>
       </c>
     </row>
@@ -10082,10 +10079,10 @@
       <c r="A428" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B428" s="4" t="s">
+      <c r="B428" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="C428" s="4" t="s">
+      <c r="C428" s="1" t="s">
         <v>468</v>
       </c>
     </row>
@@ -10093,10 +10090,10 @@
       <c r="A429" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B429" s="4" t="s">
+      <c r="B429" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="C429" s="4" t="s">
+      <c r="C429" s="1" t="s">
         <v>470</v>
       </c>
     </row>
@@ -10104,10 +10101,10 @@
       <c r="A430" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B430" s="4" t="s">
+      <c r="B430" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="C430" s="4" t="s">
+      <c r="C430" s="1" t="s">
         <v>472</v>
       </c>
     </row>
@@ -10115,10 +10112,10 @@
       <c r="A431" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B431" s="4" t="s">
+      <c r="B431" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="C431" s="4" t="s">
+      <c r="C431" s="1" t="s">
         <v>474</v>
       </c>
     </row>
@@ -10126,10 +10123,10 @@
       <c r="A432" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B432" s="4" t="s">
+      <c r="B432" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="C432" s="4" t="s">
+      <c r="C432" s="1" t="s">
         <v>476</v>
       </c>
     </row>
@@ -10137,10 +10134,10 @@
       <c r="A433" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B433" s="4" t="s">
+      <c r="B433" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="C433" s="4" t="s">
+      <c r="C433" s="1" t="s">
         <v>478</v>
       </c>
     </row>
@@ -10148,10 +10145,10 @@
       <c r="A434" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B434" s="4" t="s">
+      <c r="B434" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="C434" s="4" t="s">
+      <c r="C434" s="1" t="s">
         <v>480</v>
       </c>
     </row>
@@ -10159,10 +10156,10 @@
       <c r="A435" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B435" s="4" t="s">
+      <c r="B435" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="C435" s="4" t="s">
+      <c r="C435" s="1" t="s">
         <v>482</v>
       </c>
     </row>
@@ -10170,10 +10167,10 @@
       <c r="A436" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B436" s="4" t="s">
+      <c r="B436" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="C436" s="4" t="s">
+      <c r="C436" s="1" t="s">
         <v>484</v>
       </c>
     </row>
@@ -10181,10 +10178,10 @@
       <c r="A437" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B437" s="4" t="s">
+      <c r="B437" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="C437" s="4" t="s">
+      <c r="C437" s="1" t="s">
         <v>486</v>
       </c>
     </row>
@@ -10192,10 +10189,10 @@
       <c r="A438" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B438" s="4" t="s">
+      <c r="B438" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="C438" s="4" t="s">
+      <c r="C438" s="1" t="s">
         <v>488</v>
       </c>
     </row>
@@ -10203,10 +10200,10 @@
       <c r="A439" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B439" s="4" t="s">
+      <c r="B439" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="C439" s="4" t="s">
+      <c r="C439" s="1" t="s">
         <v>490</v>
       </c>
     </row>
@@ -10214,10 +10211,10 @@
       <c r="A440" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B440" s="4" t="s">
+      <c r="B440" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="C440" s="4" t="s">
+      <c r="C440" s="1" t="s">
         <v>492</v>
       </c>
     </row>
@@ -10225,10 +10222,10 @@
       <c r="A441" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B441" s="4" t="s">
+      <c r="B441" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="C441" s="4" t="s">
+      <c r="C441" s="1" t="s">
         <v>494</v>
       </c>
     </row>
@@ -10236,10 +10233,10 @@
       <c r="A442" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B442" s="4" t="s">
+      <c r="B442" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C442" s="4" t="s">
+      <c r="C442" s="1" t="s">
         <v>496</v>
       </c>
     </row>
@@ -10247,10 +10244,10 @@
       <c r="A443" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B443" s="4" t="s">
+      <c r="B443" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="C443" s="4" t="s">
+      <c r="C443" s="1" t="s">
         <v>498</v>
       </c>
     </row>
@@ -10258,10 +10255,10 @@
       <c r="A444" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B444" s="4" t="s">
+      <c r="B444" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="C444" s="4" t="s">
+      <c r="C444" s="1" t="s">
         <v>500</v>
       </c>
     </row>
@@ -10269,10 +10266,10 @@
       <c r="A445" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B445" s="4" t="s">
+      <c r="B445" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="C445" s="4" t="s">
+      <c r="C445" s="1" t="s">
         <v>502</v>
       </c>
     </row>
@@ -10280,10 +10277,10 @@
       <c r="A446" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B446" s="4" t="s">
+      <c r="B446" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="C446" s="4" t="s">
+      <c r="C446" s="1" t="s">
         <v>504</v>
       </c>
     </row>
@@ -10291,10 +10288,10 @@
       <c r="A447" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B447" s="4" t="s">
+      <c r="B447" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="C447" s="4" t="s">
+      <c r="C447" s="1" t="s">
         <v>506</v>
       </c>
     </row>
@@ -10302,10 +10299,10 @@
       <c r="A448" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B448" s="4" t="s">
+      <c r="B448" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="C448" s="4" t="s">
+      <c r="C448" s="1" t="s">
         <v>508</v>
       </c>
     </row>
@@ -10313,10 +10310,10 @@
       <c r="A449" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B449" s="4" t="s">
+      <c r="B449" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="C449" s="4" t="s">
+      <c r="C449" s="1" t="s">
         <v>510</v>
       </c>
     </row>
@@ -10324,10 +10321,10 @@
       <c r="A450" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B450" s="4" t="s">
+      <c r="B450" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="C450" s="4" t="s">
+      <c r="C450" s="1" t="s">
         <v>512</v>
       </c>
     </row>
@@ -10335,10 +10332,10 @@
       <c r="A451" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B451" s="4" t="s">
+      <c r="B451" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="C451" s="4" t="s">
+      <c r="C451" s="1" t="s">
         <v>514</v>
       </c>
     </row>
@@ -10346,10 +10343,10 @@
       <c r="A452" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B452" s="4" t="s">
+      <c r="B452" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="C452" s="4" t="s">
+      <c r="C452" s="1" t="s">
         <v>516</v>
       </c>
     </row>
@@ -10357,10 +10354,10 @@
       <c r="A453" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B453" s="4" t="s">
+      <c r="B453" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="C453" s="4" t="s">
+      <c r="C453" s="1" t="s">
         <v>518</v>
       </c>
     </row>
@@ -10368,10 +10365,10 @@
       <c r="A454" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B454" s="4" t="s">
+      <c r="B454" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="C454" s="4" t="s">
+      <c r="C454" s="1" t="s">
         <v>520</v>
       </c>
     </row>
@@ -10379,10 +10376,10 @@
       <c r="A455" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B455" s="4" t="s">
+      <c r="B455" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="C455" s="4" t="s">
+      <c r="C455" s="1" t="s">
         <v>522</v>
       </c>
     </row>
@@ -10390,10 +10387,10 @@
       <c r="A456" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B456" s="4" t="s">
+      <c r="B456" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="C456" s="4" t="s">
+      <c r="C456" s="1" t="s">
         <v>524</v>
       </c>
     </row>
@@ -10401,10 +10398,10 @@
       <c r="A457" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B457" s="4" t="s">
+      <c r="B457" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="C457" s="4" t="s">
+      <c r="C457" s="1" t="s">
         <v>526</v>
       </c>
     </row>
@@ -10412,10 +10409,10 @@
       <c r="A458" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B458" s="4" t="s">
+      <c r="B458" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="C458" s="4" t="s">
+      <c r="C458" s="1" t="s">
         <v>528</v>
       </c>
     </row>
@@ -10423,10 +10420,10 @@
       <c r="A459" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B459" s="4" t="s">
+      <c r="B459" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="C459" s="4" t="s">
+      <c r="C459" s="1" t="s">
         <v>530</v>
       </c>
     </row>
@@ -10434,10 +10431,10 @@
       <c r="A460" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B460" s="4" t="s">
+      <c r="B460" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="C460" s="4" t="s">
+      <c r="C460" s="1" t="s">
         <v>532</v>
       </c>
     </row>
@@ -10445,10 +10442,10 @@
       <c r="A461" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B461" s="4" t="s">
+      <c r="B461" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="C461" s="4" t="s">
+      <c r="C461" s="1" t="s">
         <v>534</v>
       </c>
     </row>
@@ -10456,10 +10453,10 @@
       <c r="A462" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B462" s="4" t="s">
+      <c r="B462" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="C462" s="4" t="s">
+      <c r="C462" s="1" t="s">
         <v>536</v>
       </c>
     </row>
@@ -10467,10 +10464,10 @@
       <c r="A463" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B463" s="4" t="s">
+      <c r="B463" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="C463" s="4" t="s">
+      <c r="C463" s="1" t="s">
         <v>538</v>
       </c>
     </row>
@@ -10478,10 +10475,10 @@
       <c r="A464" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B464" s="4" t="s">
+      <c r="B464" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="C464" s="4" t="s">
+      <c r="C464" s="1" t="s">
         <v>540</v>
       </c>
     </row>
@@ -10489,10 +10486,10 @@
       <c r="A465" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B465" s="4" t="s">
+      <c r="B465" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="C465" s="4" t="s">
+      <c r="C465" s="1" t="s">
         <v>542</v>
       </c>
     </row>
@@ -10500,10 +10497,10 @@
       <c r="A466" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B466" s="4" t="s">
+      <c r="B466" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="C466" s="4" t="s">
+      <c r="C466" s="1" t="s">
         <v>544</v>
       </c>
     </row>
@@ -10511,10 +10508,10 @@
       <c r="A467" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B467" s="4" t="s">
+      <c r="B467" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="C467" s="4" t="s">
+      <c r="C467" s="1" t="s">
         <v>546</v>
       </c>
     </row>
@@ -10522,10 +10519,10 @@
       <c r="A468" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B468" s="4" t="s">
+      <c r="B468" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="C468" s="4" t="s">
+      <c r="C468" s="1" t="s">
         <v>548</v>
       </c>
     </row>
@@ -10533,10 +10530,10 @@
       <c r="A469" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B469" s="4" t="s">
+      <c r="B469" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="C469" s="4" t="s">
+      <c r="C469" s="1" t="s">
         <v>550</v>
       </c>
     </row>
@@ -10544,10 +10541,10 @@
       <c r="A470" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B470" s="4" t="s">
+      <c r="B470" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="C470" s="4" t="s">
+      <c r="C470" s="1" t="s">
         <v>552</v>
       </c>
     </row>
@@ -10555,10 +10552,10 @@
       <c r="A471" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B471" s="4" t="s">
+      <c r="B471" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="C471" s="4" t="s">
+      <c r="C471" s="1" t="s">
         <v>554</v>
       </c>
     </row>
@@ -10566,10 +10563,10 @@
       <c r="A472" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B472" s="4" t="s">
+      <c r="B472" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="C472" s="4" t="s">
+      <c r="C472" s="1" t="s">
         <v>556</v>
       </c>
     </row>
@@ -10577,10 +10574,10 @@
       <c r="A473" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B473" s="4" t="s">
+      <c r="B473" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="C473" s="4" t="s">
+      <c r="C473" s="1" t="s">
         <v>558</v>
       </c>
     </row>
@@ -10588,10 +10585,10 @@
       <c r="A474" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B474" s="4" t="s">
+      <c r="B474" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="C474" s="4" t="s">
+      <c r="C474" s="1" t="s">
         <v>560</v>
       </c>
     </row>
@@ -10599,10 +10596,10 @@
       <c r="A475" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B475" s="4" t="s">
+      <c r="B475" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="C475" s="4" t="s">
+      <c r="C475" s="1" t="s">
         <v>562</v>
       </c>
     </row>
@@ -10610,10 +10607,10 @@
       <c r="A476" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B476" s="4" t="s">
+      <c r="B476" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="C476" s="4" t="s">
+      <c r="C476" s="1" t="s">
         <v>564</v>
       </c>
     </row>
@@ -10621,10 +10618,10 @@
       <c r="A477" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B477" s="4" t="s">
+      <c r="B477" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="C477" s="4" t="s">
+      <c r="C477" s="1" t="s">
         <v>566</v>
       </c>
     </row>
@@ -10632,10 +10629,10 @@
       <c r="A478" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B478" s="4" t="s">
+      <c r="B478" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="C478" s="4" t="s">
+      <c r="C478" s="1" t="s">
         <v>568</v>
       </c>
     </row>
@@ -10643,10 +10640,10 @@
       <c r="A479" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B479" s="4" t="s">
+      <c r="B479" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="C479" s="4" t="s">
+      <c r="C479" s="1" t="s">
         <v>570</v>
       </c>
     </row>
@@ -10654,10 +10651,10 @@
       <c r="A480" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B480" s="4" t="s">
+      <c r="B480" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="C480" s="4" t="s">
+      <c r="C480" s="1" t="s">
         <v>572</v>
       </c>
     </row>
@@ -10665,10 +10662,10 @@
       <c r="A481" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B481" s="4" t="s">
+      <c r="B481" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="C481" s="4" t="s">
+      <c r="C481" s="1" t="s">
         <v>574</v>
       </c>
     </row>
@@ -10676,10 +10673,10 @@
       <c r="A482" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B482" s="4" t="s">
+      <c r="B482" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="C482" s="4" t="s">
+      <c r="C482" s="1" t="s">
         <v>576</v>
       </c>
     </row>
@@ -10687,10 +10684,10 @@
       <c r="A483" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B483" s="4" t="s">
+      <c r="B483" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="C483" s="4" t="s">
+      <c r="C483" s="1" t="s">
         <v>578</v>
       </c>
     </row>
@@ -10698,10 +10695,10 @@
       <c r="A484" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B484" s="4" t="s">
+      <c r="B484" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="C484" s="4" t="s">
+      <c r="C484" s="1" t="s">
         <v>580</v>
       </c>
     </row>
@@ -10709,10 +10706,10 @@
       <c r="A485" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B485" s="4" t="s">
+      <c r="B485" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="C485" s="4" t="s">
+      <c r="C485" s="1" t="s">
         <v>582</v>
       </c>
     </row>
@@ -10720,10 +10717,10 @@
       <c r="A486" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B486" s="4" t="s">
+      <c r="B486" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="C486" s="4" t="s">
+      <c r="C486" s="1" t="s">
         <v>584</v>
       </c>
     </row>
@@ -10731,10 +10728,10 @@
       <c r="A487" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B487" s="4" t="s">
+      <c r="B487" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="C487" s="4" t="s">
+      <c r="C487" s="1" t="s">
         <v>586</v>
       </c>
     </row>
@@ -10742,10 +10739,10 @@
       <c r="A488" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B488" s="4" t="s">
+      <c r="B488" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="C488" s="4" t="s">
+      <c r="C488" s="1" t="s">
         <v>588</v>
       </c>
     </row>
@@ -10753,10 +10750,10 @@
       <c r="A489" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B489" s="4" t="s">
+      <c r="B489" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="C489" s="4" t="s">
+      <c r="C489" s="1" t="s">
         <v>590</v>
       </c>
     </row>
@@ -10764,10 +10761,10 @@
       <c r="A490" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B490" s="4" t="s">
+      <c r="B490" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="C490" s="4" t="s">
+      <c r="C490" s="1" t="s">
         <v>592</v>
       </c>
     </row>
@@ -10775,10 +10772,10 @@
       <c r="A491" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B491" s="4" t="s">
+      <c r="B491" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C491" s="4" t="s">
+      <c r="C491" s="1" t="s">
         <v>594</v>
       </c>
     </row>
@@ -10786,10 +10783,10 @@
       <c r="A492" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B492" s="4" t="s">
+      <c r="B492" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="C492" s="4" t="s">
+      <c r="C492" s="1" t="s">
         <v>596</v>
       </c>
     </row>
@@ -10797,10 +10794,10 @@
       <c r="A493" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B493" s="4" t="s">
+      <c r="B493" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="C493" s="4" t="s">
+      <c r="C493" s="1" t="s">
         <v>598</v>
       </c>
     </row>
@@ -10808,10 +10805,10 @@
       <c r="A494" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B494" s="4" t="s">
+      <c r="B494" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="C494" s="4" t="s">
+      <c r="C494" s="1" t="s">
         <v>600</v>
       </c>
     </row>
@@ -10819,10 +10816,10 @@
       <c r="A495" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B495" s="4" t="s">
+      <c r="B495" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="C495" s="4" t="s">
+      <c r="C495" s="1" t="s">
         <v>602</v>
       </c>
     </row>
@@ -10830,10 +10827,10 @@
       <c r="A496" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B496" s="4" t="s">
+      <c r="B496" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="C496" s="4" t="s">
+      <c r="C496" s="1" t="s">
         <v>604</v>
       </c>
     </row>
@@ -10841,15 +10838,15 @@
       <c r="A497" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B497" s="4" t="s">
+      <c r="B497" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="C497" s="4" t="s">
+      <c r="C497" s="1" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A498" s="5" t="s">
+      <c r="A498" s="1" t="s">
         <v>1000</v>
       </c>
       <c r="B498" s="1" t="s">
@@ -10860,7 +10857,7 @@
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A499" s="5" t="s">
+      <c r="A499" s="1" t="s">
         <v>1000</v>
       </c>
       <c r="B499" s="1" t="s">
@@ -10871,7 +10868,7 @@
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A500" s="5" t="s">
+      <c r="A500" s="1" t="s">
         <v>1000</v>
       </c>
       <c r="B500" s="1" t="s">
@@ -10882,7 +10879,7 @@
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A501" s="5" t="s">
+      <c r="A501" s="1" t="s">
         <v>1000</v>
       </c>
       <c r="B501" s="1" t="s">
@@ -10893,7 +10890,7 @@
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A502" s="5" t="s">
+      <c r="A502" s="1" t="s">
         <v>1000</v>
       </c>
       <c r="B502" s="1" t="s">
@@ -10904,7 +10901,7 @@
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A503" s="5" t="s">
+      <c r="A503" s="1" t="s">
         <v>1000</v>
       </c>
       <c r="B503" s="1" t="s">
@@ -10915,7 +10912,7 @@
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A504" s="5" t="s">
+      <c r="A504" s="1" t="s">
         <v>1000</v>
       </c>
       <c r="B504" s="1" t="s">
@@ -10926,7 +10923,7 @@
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A505" s="5" t="s">
+      <c r="A505" s="1" t="s">
         <v>1000</v>
       </c>
       <c r="B505" s="1" t="s">
@@ -10937,7 +10934,7 @@
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A506" s="5" t="s">
+      <c r="A506" s="1" t="s">
         <v>1000</v>
       </c>
       <c r="B506" s="1" t="s">
@@ -10948,7 +10945,7 @@
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A507" s="5" t="s">
+      <c r="A507" s="1" t="s">
         <v>1000</v>
       </c>
       <c r="B507" s="1" t="s">
@@ -10959,7 +10956,7 @@
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A508" s="5" t="s">
+      <c r="A508" s="1" t="s">
         <v>1000</v>
       </c>
       <c r="B508" s="1" t="s">
@@ -10970,7 +10967,7 @@
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A509" s="5" t="s">
+      <c r="A509" s="1" t="s">
         <v>1000</v>
       </c>
       <c r="B509" s="1" t="s">
@@ -10981,7 +10978,7 @@
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A510" s="5" t="s">
+      <c r="A510" s="1" t="s">
         <v>1000</v>
       </c>
       <c r="B510" s="1" t="s">
@@ -10992,7 +10989,7 @@
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A511" s="5" t="s">
+      <c r="A511" s="1" t="s">
         <v>1000</v>
       </c>
       <c r="B511" s="1" t="s">
@@ -11003,7 +11000,7 @@
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A512" s="5" t="s">
+      <c r="A512" s="1" t="s">
         <v>1000</v>
       </c>
       <c r="B512" s="1" t="s">
@@ -11014,7 +11011,7 @@
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A513" s="5" t="s">
+      <c r="A513" s="1" t="s">
         <v>1000</v>
       </c>
       <c r="B513" s="1" t="s">
@@ -11025,7 +11022,7 @@
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A514" s="5" t="s">
+      <c r="A514" s="1" t="s">
         <v>1000</v>
       </c>
       <c r="B514" s="1" t="s">
@@ -11036,7 +11033,7 @@
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A515" s="5" t="s">
+      <c r="A515" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B515" s="1" t="s">
@@ -11047,7 +11044,7 @@
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A516" s="5" t="s">
+      <c r="A516" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B516" s="1" t="s">
@@ -11058,7 +11055,7 @@
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A517" s="5" t="s">
+      <c r="A517" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B517" s="1" t="s">
@@ -11069,7 +11066,7 @@
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A518" s="5" t="s">
+      <c r="A518" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B518" s="1" t="s">
@@ -11080,7 +11077,7 @@
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A519" s="5" t="s">
+      <c r="A519" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B519" s="1" t="s">
@@ -11091,7 +11088,7 @@
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A520" s="5" t="s">
+      <c r="A520" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B520" s="1" t="s">
@@ -11102,7 +11099,7 @@
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A521" s="5" t="s">
+      <c r="A521" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B521" s="1" t="s">
@@ -11113,7 +11110,7 @@
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A522" s="5" t="s">
+      <c r="A522" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B522" s="1" t="s">
@@ -11124,7 +11121,7 @@
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A523" s="5" t="s">
+      <c r="A523" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B523" s="1" t="s">
@@ -11135,7 +11132,7 @@
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A524" s="5" t="s">
+      <c r="A524" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B524" s="1" t="s">
@@ -11146,7 +11143,7 @@
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A525" s="5" t="s">
+      <c r="A525" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B525" s="1" t="s">
@@ -11157,7 +11154,7 @@
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A526" s="5" t="s">
+      <c r="A526" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B526" s="1" t="s">
@@ -11168,7 +11165,7 @@
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A527" s="5" t="s">
+      <c r="A527" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B527" s="1" t="s">
@@ -11179,7 +11176,7 @@
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A528" s="5" t="s">
+      <c r="A528" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B528" s="1" t="s">
@@ -11190,7 +11187,7 @@
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A529" s="5" t="s">
+      <c r="A529" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B529" s="1" t="s">
@@ -11201,7 +11198,7 @@
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A530" s="5" t="s">
+      <c r="A530" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B530" s="1" t="s">
@@ -11212,7 +11209,7 @@
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A531" s="5" t="s">
+      <c r="A531" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B531" s="1" t="s">
@@ -11223,7 +11220,7 @@
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A532" s="5" t="s">
+      <c r="A532" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B532" s="1" t="s">
@@ -11234,7 +11231,7 @@
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A533" s="5" t="s">
+      <c r="A533" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B533" s="1" t="s">
@@ -11245,7 +11242,7 @@
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A534" s="5" t="s">
+      <c r="A534" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B534" s="1" t="s">
@@ -11256,7 +11253,7 @@
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A535" s="5" t="s">
+      <c r="A535" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B535" s="1" t="s">
@@ -11267,7 +11264,7 @@
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A536" s="5" t="s">
+      <c r="A536" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B536" s="1" t="s">
@@ -11278,7 +11275,7 @@
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A537" s="5" t="s">
+      <c r="A537" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B537" s="1" t="s">
@@ -11289,7 +11286,7 @@
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A538" s="5" t="s">
+      <c r="A538" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B538" s="1" t="s">
@@ -11300,7 +11297,7 @@
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A539" s="5" t="s">
+      <c r="A539" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B539" s="1" t="s">
@@ -11311,7 +11308,7 @@
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A540" s="5" t="s">
+      <c r="A540" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B540" s="1" t="s">
@@ -11322,7 +11319,7 @@
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A541" s="5" t="s">
+      <c r="A541" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B541" s="1" t="s">
@@ -11333,7 +11330,7 @@
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A542" s="5" t="s">
+      <c r="A542" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B542" s="1" t="s">
@@ -11344,7 +11341,7 @@
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A543" s="5" t="s">
+      <c r="A543" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B543" s="1" t="s">
@@ -11355,7 +11352,7 @@
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A544" s="5" t="s">
+      <c r="A544" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B544" s="1" t="s">
@@ -11366,7 +11363,7 @@
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A545" s="5" t="s">
+      <c r="A545" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B545" s="1" t="s">
@@ -11377,7 +11374,7 @@
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A546" s="5" t="s">
+      <c r="A546" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B546" s="1" t="s">
@@ -11388,7 +11385,7 @@
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A547" s="5" t="s">
+      <c r="A547" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B547" s="1" t="s">
@@ -11399,7 +11396,7 @@
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A548" s="5" t="s">
+      <c r="A548" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B548" s="1" t="s">
@@ -11410,7 +11407,7 @@
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A549" s="5" t="s">
+      <c r="A549" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B549" s="1" t="s">
@@ -11421,7 +11418,7 @@
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A550" s="5" t="s">
+      <c r="A550" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B550" s="1" t="s">
@@ -11432,7 +11429,7 @@
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A551" s="5" t="s">
+      <c r="A551" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B551" s="1" t="s">
@@ -11443,7 +11440,7 @@
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A552" s="5" t="s">
+      <c r="A552" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B552" s="1" t="s">
@@ -11454,7 +11451,7 @@
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A553" s="5" t="s">
+      <c r="A553" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B553" s="1" t="s">
@@ -11465,7 +11462,7 @@
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A554" s="5" t="s">
+      <c r="A554" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B554" s="1" t="s">
@@ -11476,7 +11473,7 @@
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A555" s="5" t="s">
+      <c r="A555" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B555" s="1" t="s">
@@ -11487,7 +11484,7 @@
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A556" s="5" t="s">
+      <c r="A556" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B556" s="1" t="s">
@@ -11498,7 +11495,7 @@
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A557" s="5" t="s">
+      <c r="A557" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B557" s="1" t="s">
@@ -11509,7 +11506,7 @@
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A558" s="5" t="s">
+      <c r="A558" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B558" s="1" t="s">
@@ -11520,7 +11517,7 @@
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A559" s="5" t="s">
+      <c r="A559" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B559" s="1" t="s">
@@ -11531,7 +11528,7 @@
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A560" s="5" t="s">
+      <c r="A560" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B560" s="1" t="s">
@@ -11542,7 +11539,7 @@
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A561" s="5" t="s">
+      <c r="A561" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B561" s="1" t="s">
@@ -11553,7 +11550,7 @@
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A562" s="5" t="s">
+      <c r="A562" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B562" s="1" t="s">
@@ -11564,7 +11561,7 @@
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A563" s="5" t="s">
+      <c r="A563" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B563" s="1" t="s">
@@ -11575,7 +11572,7 @@
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A564" s="5" t="s">
+      <c r="A564" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B564" s="1" t="s">
@@ -11586,7 +11583,7 @@
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A565" s="5" t="s">
+      <c r="A565" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B565" s="1" t="s">
@@ -11597,7 +11594,7 @@
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A566" s="5" t="s">
+      <c r="A566" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B566" s="1" t="s">
@@ -11608,7 +11605,7 @@
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A567" s="5" t="s">
+      <c r="A567" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B567" s="1" t="s">
@@ -11619,7 +11616,7 @@
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A568" s="5" t="s">
+      <c r="A568" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B568" s="1" t="s">
@@ -11630,7 +11627,7 @@
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A569" s="5" t="s">
+      <c r="A569" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B569" s="1" t="s">
@@ -11641,7 +11638,7 @@
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A570" s="5" t="s">
+      <c r="A570" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B570" s="1" t="s">
@@ -11652,7 +11649,7 @@
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A571" s="5" t="s">
+      <c r="A571" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B571" s="1" t="s">
@@ -11663,7 +11660,7 @@
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A572" s="5" t="s">
+      <c r="A572" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B572" s="1" t="s">
@@ -11674,7 +11671,7 @@
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A573" s="5" t="s">
+      <c r="A573" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B573" s="1" t="s">
@@ -11685,7 +11682,7 @@
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A574" s="5" t="s">
+      <c r="A574" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B574" s="1" t="s">
@@ -11696,7 +11693,7 @@
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A575" s="5" t="s">
+      <c r="A575" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B575" s="1" t="s">
@@ -11707,7 +11704,7 @@
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A576" s="5" t="s">
+      <c r="A576" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B576" s="1" t="s">
@@ -11718,7 +11715,7 @@
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A577" s="5" t="s">
+      <c r="A577" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B577" s="1" t="s">
@@ -11729,7 +11726,7 @@
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A578" s="5" t="s">
+      <c r="A578" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B578" s="1" t="s">
@@ -11740,7 +11737,7 @@
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A579" s="5" t="s">
+      <c r="A579" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B579" s="1" t="s">
@@ -11751,7 +11748,7 @@
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A580" s="5" t="s">
+      <c r="A580" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B580" s="1" t="s">
@@ -11762,7 +11759,7 @@
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A581" s="5" t="s">
+      <c r="A581" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B581" s="1" t="s">
@@ -11773,7 +11770,7 @@
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A582" s="5" t="s">
+      <c r="A582" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B582" s="1" t="s">
@@ -11784,7 +11781,7 @@
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A583" s="5" t="s">
+      <c r="A583" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B583" s="1" t="s">
@@ -11795,7 +11792,7 @@
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A584" s="5" t="s">
+      <c r="A584" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B584" s="1" t="s">
@@ -11806,7 +11803,7 @@
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A585" s="5" t="s">
+      <c r="A585" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B585" s="1" t="s">
@@ -11817,7 +11814,7 @@
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A586" s="5" t="s">
+      <c r="A586" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B586" s="1" t="s">
@@ -11828,7 +11825,7 @@
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A587" s="5" t="s">
+      <c r="A587" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B587" s="1" t="s">
@@ -11839,7 +11836,7 @@
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A588" s="5" t="s">
+      <c r="A588" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B588" s="1" t="s">
@@ -11850,7 +11847,7 @@
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A589" s="5" t="s">
+      <c r="A589" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B589" s="1" t="s">
@@ -11861,7 +11858,7 @@
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A590" s="5" t="s">
+      <c r="A590" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B590" s="1" t="s">
@@ -11872,7 +11869,7 @@
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A591" s="5" t="s">
+      <c r="A591" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B591" s="1" t="s">
@@ -11883,7 +11880,7 @@
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A592" s="5" t="s">
+      <c r="A592" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B592" s="1" t="s">
@@ -11894,7 +11891,7 @@
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A593" s="5" t="s">
+      <c r="A593" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B593" s="1" t="s">
@@ -11905,7 +11902,7 @@
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A594" s="5" t="s">
+      <c r="A594" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B594" s="1" t="s">
@@ -11916,7 +11913,7 @@
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A595" s="5" t="s">
+      <c r="A595" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B595" s="1" t="s">
@@ -11927,7 +11924,7 @@
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A596" s="5" t="s">
+      <c r="A596" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B596" s="1" t="s">
@@ -11938,7 +11935,7 @@
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A597" s="5" t="s">
+      <c r="A597" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B597" s="1" t="s">
@@ -11949,2614 +11946,2534 @@
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A598" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B598" s="4" t="s">
+      <c r="A598" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B598" s="1" t="s">
         <v>1206</v>
       </c>
-      <c r="C598" s="4" t="s">
+      <c r="C598" s="1" t="s">
         <v>1207</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A599" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B599" s="4" t="s">
+      <c r="A599" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B599" s="1" t="s">
         <v>1208</v>
       </c>
-      <c r="C599" s="4" t="s">
+      <c r="C599" s="1" t="s">
         <v>1209</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A600" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B600" s="4" t="s">
+      <c r="A600" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B600" s="1" t="s">
         <v>1210</v>
       </c>
-      <c r="C600" s="4" t="s">
+      <c r="C600" s="1" t="s">
         <v>1211</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A601" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B601" s="4" t="s">
+      <c r="A601" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B601" s="1" t="s">
         <v>1212</v>
       </c>
-      <c r="C601" s="4" t="s">
+      <c r="C601" s="1" t="s">
         <v>1203</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A602" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B602" s="4" t="s">
+      <c r="A602" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B602" s="1" t="s">
         <v>1213</v>
       </c>
-      <c r="C602" s="4" t="s">
+      <c r="C602" s="1" t="s">
         <v>1214</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A603" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B603" s="4" t="s">
+      <c r="A603" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B603" s="1" t="s">
         <v>1215</v>
       </c>
-      <c r="C603" s="4" t="s">
+      <c r="C603" s="1" t="s">
         <v>1216</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A604" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B604" s="4" t="s">
+      <c r="A604" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B604" s="1" t="s">
         <v>1217</v>
       </c>
-      <c r="C604" s="4" t="s">
+      <c r="C604" s="1" t="s">
         <v>1218</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A605" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B605" s="4" t="s">
+      <c r="A605" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B605" s="1" t="s">
         <v>1219</v>
       </c>
-      <c r="C605" s="4" t="s">
+      <c r="C605" s="1" t="s">
         <v>1220</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A606" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B606" s="4" t="s">
+      <c r="A606" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B606" s="1" t="s">
         <v>1204</v>
       </c>
-      <c r="C606" s="4" t="s">
+      <c r="C606" s="1" t="s">
         <v>1221</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A607" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B607" s="4" t="s">
+      <c r="A607" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B607" s="1" t="s">
         <v>1222</v>
       </c>
-      <c r="C607" s="4" t="s">
+      <c r="C607" s="1" t="s">
         <v>1205</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A608" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B608" s="4" t="s">
+      <c r="A608" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B608" s="1" t="s">
         <v>1223</v>
       </c>
-      <c r="C608" s="4" t="s">
+      <c r="C608" s="1" t="s">
         <v>1224</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A609" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B609" s="4" t="s">
+      <c r="A609" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B609" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="C609" s="4" t="s">
+      <c r="C609" s="1" t="s">
         <v>1226</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A610" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B610" s="4" t="s">
+      <c r="A610" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B610" s="1" t="s">
         <v>1227</v>
       </c>
-      <c r="C610" s="4" t="s">
+      <c r="C610" s="1" t="s">
         <v>1228</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A611" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B611" s="4" t="s">
+      <c r="A611" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B611" s="1" t="s">
         <v>1229</v>
       </c>
-      <c r="C611" s="4" t="s">
+      <c r="C611" s="1" t="s">
         <v>1230</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A612" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B612" s="4" t="s">
+      <c r="A612" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B612" s="1" t="s">
         <v>1231</v>
       </c>
-      <c r="C612" s="4" t="s">
+      <c r="C612" s="1" t="s">
         <v>1232</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A613" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B613" s="4" t="s">
+      <c r="A613" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B613" s="1" t="s">
         <v>1233</v>
       </c>
-      <c r="C613" s="4" t="s">
+      <c r="C613" s="1" t="s">
         <v>1234</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A614" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B614" s="4" t="s">
+      <c r="A614" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B614" s="1" t="s">
         <v>1235</v>
       </c>
-      <c r="C614" s="4" t="s">
+      <c r="C614" s="1" t="s">
         <v>1236</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A615" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B615" s="4" t="s">
+      <c r="A615" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B615" s="1" t="s">
         <v>1237</v>
       </c>
-      <c r="C615" s="4" t="s">
+      <c r="C615" s="1" t="s">
         <v>1238</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A616" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B616" s="4" t="s">
+      <c r="A616" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B616" s="1" t="s">
         <v>1239</v>
       </c>
-      <c r="C616" s="4" t="s">
+      <c r="C616" s="1" t="s">
         <v>1240</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A617" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B617" s="4" t="s">
+      <c r="A617" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B617" s="1" t="s">
         <v>1241</v>
       </c>
-      <c r="C617" s="4" t="s">
+      <c r="C617" s="1" t="s">
         <v>1242</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A618" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B618" s="4" t="s">
+      <c r="A618" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B618" s="1" t="s">
         <v>1243</v>
       </c>
-      <c r="C618" s="4" t="s">
+      <c r="C618" s="1" t="s">
         <v>1244</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A619" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B619" s="4" t="s">
+      <c r="A619" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B619" s="1" t="s">
         <v>1245</v>
       </c>
-      <c r="C619" s="4" t="s">
+      <c r="C619" s="1" t="s">
         <v>1246</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A620" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B620" s="4" t="s">
+      <c r="A620" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B620" s="1" t="s">
         <v>1247</v>
       </c>
-      <c r="C620" s="4" t="s">
+      <c r="C620" s="1" t="s">
         <v>1248</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A621" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B621" s="4" t="s">
+      <c r="A621" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B621" s="1" t="s">
         <v>1249</v>
       </c>
-      <c r="C621" s="4" t="s">
+      <c r="C621" s="1" t="s">
         <v>1250</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A622" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B622" s="4" t="s">
+      <c r="A622" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B622" s="1" t="s">
         <v>1251</v>
       </c>
-      <c r="C622" s="4" t="s">
+      <c r="C622" s="1" t="s">
         <v>1252</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A623" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B623" s="4" t="s">
+      <c r="A623" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B623" s="1" t="s">
         <v>1253</v>
       </c>
-      <c r="C623" s="4" t="s">
+      <c r="C623" s="1" t="s">
         <v>1254</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A624" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B624" s="4" t="s">
+      <c r="A624" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B624" s="1" t="s">
         <v>1255</v>
       </c>
-      <c r="C624" s="4" t="s">
+      <c r="C624" s="1" t="s">
         <v>1256</v>
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A625" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B625" s="4" t="s">
+      <c r="A625" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B625" s="1" t="s">
         <v>1257</v>
       </c>
-      <c r="C625" s="4" t="s">
+      <c r="C625" s="1" t="s">
         <v>1258</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A626" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B626" s="4" t="s">
+      <c r="A626" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B626" s="1" t="s">
         <v>1259</v>
       </c>
-      <c r="C626" s="4" t="s">
+      <c r="C626" s="1" t="s">
         <v>1260</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A627" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B627" s="4" t="s">
+      <c r="A627" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B627" s="1" t="s">
         <v>1261</v>
       </c>
-      <c r="C627" s="4" t="s">
+      <c r="C627" s="1" t="s">
         <v>1262</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A628" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B628" s="4" t="s">
+      <c r="A628" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B628" s="1" t="s">
         <v>1263</v>
       </c>
-      <c r="C628" s="4" t="s">
+      <c r="C628" s="1" t="s">
         <v>1264</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A629" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B629" s="4" t="s">
+      <c r="A629" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B629" s="1" t="s">
         <v>1265</v>
       </c>
-      <c r="C629" s="4" t="s">
+      <c r="C629" s="1" t="s">
         <v>1266</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A630" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B630" s="4" t="s">
+      <c r="A630" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B630" s="1" t="s">
         <v>1267</v>
       </c>
-      <c r="C630" s="4" t="s">
+      <c r="C630" s="1" t="s">
         <v>1268</v>
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A631" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B631" s="4" t="s">
+      <c r="A631" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B631" s="1" t="s">
         <v>1269</v>
       </c>
-      <c r="C631" s="4" t="s">
+      <c r="C631" s="1" t="s">
         <v>1270</v>
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A632" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B632" s="4" t="s">
+      <c r="A632" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B632" s="1" t="s">
         <v>1271</v>
       </c>
-      <c r="C632" s="4" t="s">
+      <c r="C632" s="1" t="s">
         <v>1272</v>
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A633" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B633" s="4" t="s">
+      <c r="A633" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B633" s="1" t="s">
         <v>1273</v>
       </c>
-      <c r="C633" s="4" t="s">
+      <c r="C633" s="1" t="s">
         <v>1274</v>
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A634" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B634" s="4" t="s">
+      <c r="A634" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B634" s="1" t="s">
         <v>1275</v>
       </c>
-      <c r="C634" s="4" t="s">
+      <c r="C634" s="1" t="s">
         <v>1276</v>
       </c>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A635" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B635" s="4" t="s">
+      <c r="A635" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B635" s="1" t="s">
         <v>1277</v>
       </c>
-      <c r="C635" s="4" t="s">
+      <c r="C635" s="1" t="s">
         <v>1278</v>
       </c>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A636" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B636" s="4" t="s">
+      <c r="A636" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B636" s="1" t="s">
         <v>1279</v>
       </c>
-      <c r="C636" s="4" t="s">
+      <c r="C636" s="1" t="s">
         <v>1280</v>
       </c>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A637" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B637" s="4" t="s">
+      <c r="A637" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B637" s="1" t="s">
         <v>1281</v>
       </c>
-      <c r="C637" s="4" t="s">
+      <c r="C637" s="1" t="s">
         <v>1282</v>
       </c>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A638" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B638" s="4" t="s">
+      <c r="A638" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B638" s="1" t="s">
         <v>1283</v>
       </c>
-      <c r="C638" s="4" t="s">
+      <c r="C638" s="1" t="s">
         <v>1284</v>
       </c>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A639" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B639" s="4" t="s">
+      <c r="A639" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B639" s="1" t="s">
         <v>1285</v>
       </c>
-      <c r="C639" s="4" t="s">
+      <c r="C639" s="1" t="s">
         <v>1286</v>
       </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A640" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B640" s="4" t="s">
+      <c r="A640" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B640" s="1" t="s">
         <v>1287</v>
       </c>
-      <c r="C640" s="4" t="s">
+      <c r="C640" s="1" t="s">
         <v>1288</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A641" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B641" s="4" t="s">
+      <c r="A641" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B641" s="1" t="s">
         <v>1289</v>
       </c>
-      <c r="C641" s="4" t="s">
+      <c r="C641" s="1" t="s">
         <v>1290</v>
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A642" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B642" s="4" t="s">
+      <c r="A642" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B642" s="1" t="s">
         <v>1291</v>
       </c>
-      <c r="C642" s="4" t="s">
+      <c r="C642" s="1" t="s">
         <v>1292</v>
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A643" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B643" s="4" t="s">
+      <c r="A643" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B643" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C643" s="4" t="s">
+      <c r="C643" s="1" t="s">
         <v>1294</v>
       </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A644" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B644" s="4" t="s">
+      <c r="A644" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B644" s="1" t="s">
         <v>1295</v>
       </c>
-      <c r="C644" s="4" t="s">
+      <c r="C644" s="1" t="s">
         <v>1296</v>
       </c>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A645" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B645" s="4" t="s">
+      <c r="A645" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B645" s="1" t="s">
         <v>1297</v>
       </c>
-      <c r="C645" s="4" t="s">
+      <c r="C645" s="1" t="s">
         <v>1298</v>
       </c>
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A646" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B646" s="4" t="s">
+      <c r="A646" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B646" s="1" t="s">
         <v>1299</v>
       </c>
-      <c r="C646" s="4" t="s">
+      <c r="C646" s="1" t="s">
         <v>1300</v>
       </c>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A647" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B647" s="4" t="s">
+      <c r="A647" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B647" s="1" t="s">
         <v>1301</v>
       </c>
-      <c r="C647" s="4" t="s">
+      <c r="C647" s="1" t="s">
         <v>1302</v>
       </c>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A648" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B648" s="4" t="s">
+      <c r="A648" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B648" s="1" t="s">
         <v>1303</v>
       </c>
-      <c r="C648" s="4" t="s">
+      <c r="C648" s="1" t="s">
         <v>1304</v>
       </c>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A649" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B649" s="4" t="s">
+      <c r="A649" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B649" s="1" t="s">
         <v>1305</v>
       </c>
-      <c r="C649" s="4" t="s">
+      <c r="C649" s="1" t="s">
         <v>1306</v>
       </c>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A650" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B650" s="4" t="s">
+      <c r="A650" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B650" s="1" t="s">
         <v>1307</v>
       </c>
-      <c r="C650" s="4" t="s">
+      <c r="C650" s="1" t="s">
         <v>1308</v>
       </c>
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A651" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B651" s="4" t="s">
+      <c r="A651" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B651" s="1" t="s">
         <v>1309</v>
       </c>
-      <c r="C651" s="4" t="s">
+      <c r="C651" s="1" t="s">
         <v>1310</v>
       </c>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A652" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B652" s="4" t="s">
+      <c r="A652" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B652" s="1" t="s">
         <v>1311</v>
       </c>
-      <c r="C652" s="4" t="s">
+      <c r="C652" s="1" t="s">
         <v>1312</v>
       </c>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A653" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B653" s="4" t="s">
+      <c r="A653" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B653" s="1" t="s">
         <v>1313</v>
       </c>
-      <c r="C653" s="4" t="s">
+      <c r="C653" s="1" t="s">
         <v>1314</v>
       </c>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A654" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B654" s="4" t="s">
+      <c r="A654" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B654" s="1" t="s">
         <v>1315</v>
       </c>
-      <c r="C654" s="4" t="s">
+      <c r="C654" s="1" t="s">
         <v>1316</v>
       </c>
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A655" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B655" s="4" t="s">
+      <c r="A655" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B655" s="1" t="s">
         <v>1317</v>
       </c>
-      <c r="C655" s="4" t="s">
+      <c r="C655" s="1" t="s">
         <v>1318</v>
       </c>
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A656" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B656" s="4" t="s">
+      <c r="A656" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B656" s="1" t="s">
         <v>1319</v>
       </c>
-      <c r="C656" s="4" t="s">
+      <c r="C656" s="1" t="s">
         <v>1320</v>
       </c>
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A657" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B657" s="4" t="s">
+      <c r="A657" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B657" s="1" t="s">
         <v>1321</v>
       </c>
-      <c r="C657" s="4" t="s">
+      <c r="C657" s="1" t="s">
         <v>1322</v>
       </c>
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A658" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B658" s="4" t="s">
+      <c r="A658" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B658" s="1" t="s">
         <v>1323</v>
       </c>
-      <c r="C658" s="4" t="s">
+      <c r="C658" s="1" t="s">
         <v>1324</v>
       </c>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A659" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B659" s="4" t="s">
+      <c r="A659" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B659" s="1" t="s">
         <v>1325</v>
       </c>
-      <c r="C659" s="4" t="s">
+      <c r="C659" s="1" t="s">
         <v>1326</v>
       </c>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A660" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B660" s="4" t="s">
+      <c r="A660" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B660" s="1" t="s">
         <v>1327</v>
       </c>
-      <c r="C660" s="4" t="s">
+      <c r="C660" s="1" t="s">
         <v>1328</v>
       </c>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A661" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B661" s="4" t="s">
+      <c r="A661" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B661" s="1" t="s">
         <v>1329</v>
       </c>
-      <c r="C661" s="4" t="s">
+      <c r="C661" s="1" t="s">
         <v>1330</v>
       </c>
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A662" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B662" s="4" t="s">
+      <c r="A662" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B662" s="1" t="s">
         <v>1331</v>
       </c>
-      <c r="C662" s="4" t="s">
+      <c r="C662" s="1" t="s">
         <v>1332</v>
       </c>
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A663" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B663" s="4" t="s">
+      <c r="A663" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B663" s="1" t="s">
         <v>1333</v>
       </c>
-      <c r="C663" s="4" t="s">
+      <c r="C663" s="1" t="s">
         <v>1334</v>
       </c>
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A664" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B664" s="4" t="s">
+      <c r="A664" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B664" s="1" t="s">
         <v>1335</v>
       </c>
-      <c r="C664" s="4" t="s">
+      <c r="C664" s="1" t="s">
         <v>1336</v>
       </c>
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A665" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B665" s="4" t="s">
+      <c r="A665" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B665" s="1" t="s">
         <v>1337</v>
       </c>
-      <c r="C665" s="4" t="s">
+      <c r="C665" s="1" t="s">
         <v>1338</v>
       </c>
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A666" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B666" s="4" t="s">
+      <c r="A666" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B666" s="1" t="s">
         <v>1339</v>
       </c>
-      <c r="C666" s="4" t="s">
+      <c r="C666" s="1" t="s">
         <v>1340</v>
       </c>
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A667" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B667" s="4" t="s">
+      <c r="A667" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B667" s="1" t="s">
         <v>1341</v>
       </c>
-      <c r="C667" s="4" t="s">
+      <c r="C667" s="1" t="s">
         <v>1342</v>
       </c>
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A668" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B668" s="4" t="s">
+      <c r="A668" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B668" s="1" t="s">
         <v>1343</v>
       </c>
-      <c r="C668" s="4" t="s">
+      <c r="C668" s="1" t="s">
         <v>1344</v>
       </c>
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A669" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B669" s="4" t="s">
+      <c r="A669" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B669" s="1" t="s">
         <v>1345</v>
       </c>
-      <c r="C669" s="4" t="s">
+      <c r="C669" s="1" t="s">
         <v>1346</v>
       </c>
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A670" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B670" s="4" t="s">
+      <c r="A670" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B670" s="1" t="s">
         <v>1347</v>
       </c>
-      <c r="C670" s="4" t="s">
+      <c r="C670" s="1" t="s">
         <v>1348</v>
       </c>
     </row>
     <row r="671" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A671" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B671" s="4" t="s">
+      <c r="A671" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B671" s="1" t="s">
         <v>1349</v>
       </c>
-      <c r="C671" s="4" t="s">
+      <c r="C671" s="1" t="s">
         <v>1350</v>
       </c>
     </row>
     <row r="672" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A672" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B672" s="4" t="s">
+      <c r="A672" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B672" s="1" t="s">
         <v>1351</v>
       </c>
-      <c r="C672" s="4" t="s">
+      <c r="C672" s="1" t="s">
         <v>1352</v>
       </c>
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A673" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B673" s="4" t="s">
+      <c r="A673" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B673" s="1" t="s">
         <v>1353</v>
       </c>
-      <c r="C673" s="4" t="s">
+      <c r="C673" s="1" t="s">
         <v>1354</v>
       </c>
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A674" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B674" s="4" t="s">
+      <c r="A674" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B674" s="1" t="s">
         <v>1355</v>
       </c>
-      <c r="C674" s="4" t="s">
+      <c r="C674" s="1" t="s">
         <v>1356</v>
       </c>
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A675" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B675" s="4" t="s">
+      <c r="A675" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B675" s="1" t="s">
         <v>1357</v>
       </c>
-      <c r="C675" s="4" t="s">
+      <c r="C675" s="1" t="s">
         <v>1358</v>
       </c>
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A676" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B676" s="4" t="s">
+      <c r="A676" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B676" s="1" t="s">
         <v>1359</v>
       </c>
-      <c r="C676" s="4" t="s">
+      <c r="C676" s="1" t="s">
         <v>1360</v>
       </c>
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A677" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B677" s="4" t="s">
+      <c r="A677" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B677" s="1" t="s">
         <v>1361</v>
       </c>
-      <c r="C677" s="4" t="s">
+      <c r="C677" s="1" t="s">
         <v>1362</v>
       </c>
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A678" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B678" s="4" t="s">
+      <c r="A678" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B678" s="1" t="s">
         <v>1363</v>
       </c>
-      <c r="C678" s="4" t="s">
+      <c r="C678" s="1" t="s">
         <v>1364</v>
       </c>
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A679" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B679" s="4" t="s">
+      <c r="A679" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B679" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="C679" s="4" t="s">
+      <c r="C679" s="1" t="s">
         <v>1366</v>
       </c>
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A680" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B680" s="4" t="s">
+      <c r="A680" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B680" s="1" t="s">
         <v>1367</v>
       </c>
-      <c r="C680" s="4" t="s">
+      <c r="C680" s="1" t="s">
         <v>1368</v>
       </c>
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A681" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B681" s="4" t="s">
+      <c r="A681" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B681" s="1" t="s">
         <v>1369</v>
       </c>
-      <c r="C681" s="4" t="s">
+      <c r="C681" s="1" t="s">
         <v>1370</v>
       </c>
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A682" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B682" s="4" t="s">
+      <c r="A682" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B682" s="1" t="s">
         <v>1371</v>
       </c>
-      <c r="C682" s="4" t="s">
+      <c r="C682" s="1" t="s">
         <v>1372</v>
       </c>
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A683" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B683" s="4" t="s">
+      <c r="A683" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B683" s="1" t="s">
         <v>1373</v>
       </c>
-      <c r="C683" s="4" t="s">
+      <c r="C683" s="1" t="s">
         <v>1374</v>
       </c>
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A684" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B684" s="4" t="s">
+      <c r="A684" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B684" s="1" t="s">
         <v>1375</v>
       </c>
-      <c r="C684" s="4" t="s">
+      <c r="C684" s="1" t="s">
         <v>1376</v>
       </c>
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A685" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B685" s="4" t="s">
+      <c r="A685" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B685" s="1" t="s">
         <v>1377</v>
       </c>
-      <c r="C685" s="4" t="s">
+      <c r="C685" s="1" t="s">
         <v>1378</v>
       </c>
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A686" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B686" s="4" t="s">
+      <c r="A686" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B686" s="1" t="s">
         <v>1379</v>
       </c>
-      <c r="C686" s="4" t="s">
+      <c r="C686" s="1" t="s">
         <v>1380</v>
       </c>
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A687" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B687" s="4" t="s">
+      <c r="A687" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B687" s="1" t="s">
         <v>1381</v>
       </c>
-      <c r="C687" s="4" t="s">
+      <c r="C687" s="1" t="s">
         <v>1382</v>
       </c>
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A688" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B688" s="4" t="s">
+      <c r="A688" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B688" s="1" t="s">
         <v>1383</v>
       </c>
-      <c r="C688" s="4" t="s">
+      <c r="C688" s="1" t="s">
         <v>1384</v>
       </c>
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A689" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B689" s="4" t="s">
+      <c r="A689" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B689" s="1" t="s">
         <v>1385</v>
       </c>
-      <c r="C689" s="4" t="s">
+      <c r="C689" s="1" t="s">
         <v>1386</v>
       </c>
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A690" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B690" s="4" t="s">
+      <c r="A690" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B690" s="1" t="s">
         <v>1387</v>
       </c>
-      <c r="C690" s="4" t="s">
+      <c r="C690" s="1" t="s">
         <v>1388</v>
       </c>
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A691" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B691" s="4" t="s">
+      <c r="A691" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B691" s="1" t="s">
         <v>1389</v>
       </c>
-      <c r="C691" s="4" t="s">
+      <c r="C691" s="1" t="s">
         <v>1390</v>
       </c>
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A692" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B692" s="4" t="s">
+      <c r="A692" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B692" s="1" t="s">
         <v>1391</v>
       </c>
-      <c r="C692" s="4" t="s">
+      <c r="C692" s="1" t="s">
         <v>1392</v>
       </c>
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A693" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B693" s="4" t="s">
+      <c r="A693" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B693" s="1" t="s">
         <v>1393</v>
       </c>
-      <c r="C693" s="4" t="s">
+      <c r="C693" s="1" t="s">
         <v>1394</v>
       </c>
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A694" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B694" s="4" t="s">
+      <c r="A694" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B694" s="1" t="s">
         <v>1395</v>
       </c>
-      <c r="C694" s="4" t="s">
+      <c r="C694" s="1" t="s">
         <v>1396</v>
       </c>
     </row>
     <row r="695" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A695" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B695" s="4" t="s">
+      <c r="A695" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B695" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="C695" s="4" t="s">
+      <c r="C695" s="1" t="s">
         <v>1398</v>
       </c>
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A696" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B696" s="4" t="s">
+      <c r="A696" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B696" s="1" t="s">
         <v>1399</v>
       </c>
-      <c r="C696" s="4" t="s">
+      <c r="C696" s="1" t="s">
         <v>1400</v>
       </c>
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A697" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B697" s="4" t="s">
+      <c r="A697" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B697" s="1" t="s">
         <v>1401</v>
       </c>
-      <c r="C697" s="4" t="s">
+      <c r="C697" s="1" t="s">
         <v>1402</v>
       </c>
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A698" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B698" s="4" t="s">
+      <c r="A698" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B698" s="1" t="s">
         <v>1403</v>
       </c>
-      <c r="C698" s="4" t="s">
+      <c r="C698" s="1" t="s">
         <v>1404</v>
       </c>
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A699" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B699" s="4" t="s">
+      <c r="A699" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B699" s="1" t="s">
         <v>1405</v>
       </c>
-      <c r="C699" s="4" t="s">
+      <c r="C699" s="1" t="s">
         <v>1406</v>
       </c>
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A700" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B700" s="4" t="s">
+      <c r="A700" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B700" s="1" t="s">
         <v>1407</v>
       </c>
-      <c r="C700" s="4" t="s">
+      <c r="C700" s="1" t="s">
         <v>1408</v>
       </c>
     </row>
     <row r="701" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A701" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B701" s="4" t="s">
+      <c r="A701" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B701" s="1" t="s">
         <v>1409</v>
       </c>
-      <c r="C701" s="4" t="s">
+      <c r="C701" s="1" t="s">
         <v>1410</v>
       </c>
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A702" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B702" s="4" t="s">
+      <c r="A702" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B702" s="1" t="s">
         <v>1411</v>
       </c>
-      <c r="C702" s="4" t="s">
+      <c r="C702" s="1" t="s">
         <v>1412</v>
       </c>
     </row>
     <row r="703" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A703" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B703" s="4" t="s">
+      <c r="A703" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B703" s="1" t="s">
         <v>1413</v>
       </c>
-      <c r="C703" s="4" t="s">
+      <c r="C703" s="1" t="s">
         <v>1414</v>
       </c>
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A704" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B704" s="4" t="s">
+      <c r="A704" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B704" s="1" t="s">
         <v>1415</v>
       </c>
-      <c r="C704" s="4" t="s">
+      <c r="C704" s="1" t="s">
         <v>1416</v>
       </c>
     </row>
     <row r="705" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A705" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B705" s="4" t="s">
+      <c r="A705" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B705" s="1" t="s">
         <v>1417</v>
       </c>
-      <c r="C705" s="4" t="s">
+      <c r="C705" s="1" t="s">
         <v>1418</v>
       </c>
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A706" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B706" s="4" t="s">
+      <c r="A706" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B706" s="1" t="s">
         <v>1419</v>
       </c>
-      <c r="C706" s="4" t="s">
+      <c r="C706" s="1" t="s">
         <v>1420</v>
       </c>
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A707" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B707" s="4" t="s">
+      <c r="A707" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B707" s="1" t="s">
         <v>1421</v>
       </c>
-      <c r="C707" s="4" t="s">
+      <c r="C707" s="1" t="s">
         <v>1422</v>
       </c>
     </row>
     <row r="708" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A708" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B708" s="4" t="s">
+      <c r="A708" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B708" s="1" t="s">
         <v>1423</v>
       </c>
-      <c r="C708" s="4" t="s">
+      <c r="C708" s="1" t="s">
         <v>1424</v>
       </c>
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A709" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B709" s="4" t="s">
+      <c r="A709" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B709" s="1" t="s">
         <v>1425</v>
       </c>
-      <c r="C709" s="4" t="s">
+      <c r="C709" s="1" t="s">
         <v>1426</v>
       </c>
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A710" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B710" s="4" t="s">
+      <c r="A710" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B710" s="1" t="s">
         <v>1427</v>
       </c>
-      <c r="C710" s="4" t="s">
+      <c r="C710" s="1" t="s">
         <v>1428</v>
       </c>
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A711" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B711" s="4" t="s">
+      <c r="A711" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B711" s="1" t="s">
         <v>1429</v>
       </c>
-      <c r="C711" s="4" t="s">
+      <c r="C711" s="1" t="s">
         <v>1430</v>
       </c>
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A712" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B712" s="4" t="s">
+      <c r="A712" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B712" s="1" t="s">
         <v>1431</v>
       </c>
-      <c r="C712" s="4" t="s">
+      <c r="C712" s="1" t="s">
         <v>1432</v>
       </c>
     </row>
     <row r="713" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A713" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B713" s="4" t="s">
+      <c r="A713" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B713" s="1" t="s">
         <v>1433</v>
       </c>
-      <c r="C713" s="4" t="s">
+      <c r="C713" s="1" t="s">
         <v>1434</v>
       </c>
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A714" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B714" s="4" t="s">
+      <c r="A714" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B714" s="1" t="s">
         <v>1435</v>
       </c>
-      <c r="C714" s="4" t="s">
+      <c r="C714" s="1" t="s">
         <v>1436</v>
       </c>
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A715" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B715" s="4" t="s">
+      <c r="A715" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B715" s="1" t="s">
         <v>1437</v>
       </c>
-      <c r="C715" s="4" t="s">
+      <c r="C715" s="1" t="s">
         <v>1438</v>
       </c>
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A716" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B716" s="4" t="s">
+      <c r="A716" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B716" s="1" t="s">
         <v>1439</v>
       </c>
-      <c r="C716" s="4" t="s">
+      <c r="C716" s="1" t="s">
         <v>1440</v>
       </c>
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A717" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B717" s="4" t="s">
+      <c r="A717" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B717" s="1" t="s">
         <v>1441</v>
       </c>
-      <c r="C717" s="4" t="s">
+      <c r="C717" s="1" t="s">
         <v>1442</v>
       </c>
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A718" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B718" s="4" t="s">
+      <c r="A718" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B718" s="1" t="s">
         <v>1443</v>
       </c>
-      <c r="C718" s="4" t="s">
+      <c r="C718" s="1" t="s">
         <v>1444</v>
       </c>
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A719" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B719" s="4" t="s">
+      <c r="A719" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B719" s="1" t="s">
         <v>1445</v>
       </c>
-      <c r="C719" s="4" t="s">
+      <c r="C719" s="1" t="s">
         <v>1446</v>
       </c>
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A720" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B720" s="4" t="s">
+      <c r="A720" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B720" s="1" t="s">
         <v>1447</v>
       </c>
-      <c r="C720" s="4" t="s">
+      <c r="C720" s="1" t="s">
         <v>1448</v>
       </c>
     </row>
     <row r="721" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A721" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B721" s="4" t="s">
+      <c r="A721" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B721" s="1" t="s">
         <v>1449</v>
       </c>
-      <c r="C721" s="4" t="s">
+      <c r="C721" s="1" t="s">
         <v>1450</v>
       </c>
     </row>
     <row r="722" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A722" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B722" s="4" t="s">
+      <c r="A722" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B722" s="1" t="s">
         <v>1451</v>
       </c>
-      <c r="C722" s="4" t="s">
+      <c r="C722" s="1" t="s">
         <v>1452</v>
       </c>
     </row>
     <row r="723" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A723" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B723" s="4" t="s">
+      <c r="A723" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B723" s="1" t="s">
         <v>1453</v>
       </c>
-      <c r="C723" s="4" t="s">
+      <c r="C723" s="1" t="s">
         <v>1454</v>
       </c>
     </row>
     <row r="724" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A724" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B724" s="4" t="s">
+      <c r="A724" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B724" s="1" t="s">
         <v>1455</v>
       </c>
-      <c r="C724" s="4" t="s">
+      <c r="C724" s="1" t="s">
         <v>1456</v>
       </c>
     </row>
     <row r="725" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A725" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B725" s="4" t="s">
+      <c r="A725" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B725" s="1" t="s">
         <v>1457</v>
       </c>
-      <c r="C725" s="4" t="s">
+      <c r="C725" s="1" t="s">
         <v>1458</v>
       </c>
     </row>
     <row r="726" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A726" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B726" s="4" t="s">
+      <c r="A726" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B726" s="1" t="s">
         <v>1459</v>
       </c>
-      <c r="C726" s="4" t="s">
+      <c r="C726" s="1" t="s">
         <v>1460</v>
       </c>
     </row>
     <row r="727" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A727" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B727" s="4" t="s">
+      <c r="A727" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B727" s="1" t="s">
         <v>1461</v>
       </c>
-      <c r="C727" s="4" t="s">
+      <c r="C727" s="1" t="s">
         <v>1462</v>
       </c>
     </row>
     <row r="728" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A728" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B728" s="4" t="s">
+      <c r="A728" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B728" s="1" t="s">
         <v>1463</v>
       </c>
-      <c r="C728" s="4" t="s">
+      <c r="C728" s="1" t="s">
         <v>1464</v>
       </c>
     </row>
     <row r="729" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A729" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B729" s="4" t="s">
+      <c r="A729" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B729" s="1" t="s">
         <v>1465</v>
       </c>
-      <c r="C729" s="4" t="s">
+      <c r="C729" s="1" t="s">
         <v>1466</v>
       </c>
     </row>
     <row r="730" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A730" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B730" s="4" t="s">
+      <c r="A730" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B730" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C730" s="4" t="s">
+      <c r="C730" s="1" t="s">
         <v>1468</v>
       </c>
     </row>
     <row r="731" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A731" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B731" s="4" t="s">
+      <c r="A731" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B731" s="1" t="s">
         <v>1469</v>
       </c>
-      <c r="C731" s="4" t="s">
+      <c r="C731" s="1" t="s">
         <v>1470</v>
       </c>
     </row>
     <row r="732" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A732" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B732" s="4" t="s">
+      <c r="A732" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B732" s="1" t="s">
         <v>1471</v>
       </c>
-      <c r="C732" s="4" t="s">
+      <c r="C732" s="1" t="s">
         <v>1472</v>
       </c>
     </row>
     <row r="733" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A733" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B733" s="4" t="s">
+      <c r="A733" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B733" s="1" t="s">
         <v>1473</v>
       </c>
-      <c r="C733" s="4" t="s">
+      <c r="C733" s="1" t="s">
         <v>1474</v>
       </c>
     </row>
     <row r="734" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A734" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B734" s="4" t="s">
+      <c r="A734" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B734" s="1" t="s">
         <v>1475</v>
       </c>
-      <c r="C734" s="4" t="s">
+      <c r="C734" s="1" t="s">
         <v>1476</v>
       </c>
     </row>
     <row r="735" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A735" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B735" s="4" t="s">
+      <c r="A735" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B735" s="1" t="s">
         <v>1477</v>
       </c>
-      <c r="C735" s="4" t="s">
+      <c r="C735" s="1" t="s">
         <v>1478</v>
       </c>
     </row>
     <row r="736" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A736" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B736" s="4" t="s">
+      <c r="A736" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B736" s="1" t="s">
         <v>1479</v>
       </c>
-      <c r="C736" s="4" t="s">
+      <c r="C736" s="1" t="s">
         <v>1480</v>
       </c>
     </row>
     <row r="737" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A737" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B737" s="4" t="s">
+      <c r="A737" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B737" s="1" t="s">
         <v>1481</v>
       </c>
-      <c r="C737" s="4" t="s">
+      <c r="C737" s="1" t="s">
         <v>1482</v>
       </c>
     </row>
     <row r="738" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A738" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B738" s="4" t="s">
+      <c r="A738" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B738" s="1" t="s">
         <v>1483</v>
       </c>
-      <c r="C738" s="4" t="s">
+      <c r="C738" s="1" t="s">
         <v>1484</v>
       </c>
     </row>
     <row r="739" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A739" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B739" s="4" t="s">
+      <c r="A739" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B739" s="1" t="s">
         <v>1485</v>
       </c>
-      <c r="C739" s="4" t="s">
+      <c r="C739" s="1" t="s">
         <v>1486</v>
       </c>
     </row>
     <row r="740" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A740" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B740" s="4" t="s">
+      <c r="A740" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B740" s="1" t="s">
         <v>1487</v>
       </c>
-      <c r="C740" s="4" t="s">
+      <c r="C740" s="1" t="s">
         <v>1488</v>
       </c>
     </row>
     <row r="741" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A741" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B741" s="4" t="s">
+      <c r="A741" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B741" s="1" t="s">
         <v>1489</v>
       </c>
-      <c r="C741" s="4" t="s">
+      <c r="C741" s="1" t="s">
         <v>1490</v>
       </c>
     </row>
     <row r="742" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A742" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B742" s="4" t="s">
+      <c r="A742" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B742" s="1" t="s">
         <v>1491</v>
       </c>
-      <c r="C742" s="4" t="s">
+      <c r="C742" s="1" t="s">
         <v>1492</v>
       </c>
     </row>
     <row r="743" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A743" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B743" s="4" t="s">
+      <c r="A743" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B743" s="1" t="s">
         <v>1493</v>
       </c>
-      <c r="C743" s="4" t="s">
+      <c r="C743" s="1" t="s">
         <v>1494</v>
       </c>
     </row>
     <row r="744" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A744" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B744" s="4" t="s">
+      <c r="A744" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B744" s="1" t="s">
         <v>1495</v>
       </c>
-      <c r="C744" s="4" t="s">
+      <c r="C744" s="1" t="s">
         <v>1496</v>
       </c>
     </row>
     <row r="745" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A745" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B745" s="4" t="s">
+      <c r="A745" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B745" s="1" t="s">
         <v>1497</v>
       </c>
-      <c r="C745" s="4" t="s">
+      <c r="C745" s="1" t="s">
         <v>1498</v>
       </c>
     </row>
     <row r="746" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A746" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B746" s="4" t="s">
+      <c r="A746" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B746" s="1" t="s">
         <v>1499</v>
       </c>
-      <c r="C746" s="4" t="s">
+      <c r="C746" s="1" t="s">
         <v>1500</v>
       </c>
     </row>
     <row r="747" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A747" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B747" s="4" t="s">
+      <c r="A747" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B747" s="1" t="s">
         <v>1501</v>
       </c>
-      <c r="C747" s="4" t="s">
+      <c r="C747" s="1" t="s">
         <v>1502</v>
       </c>
     </row>
     <row r="748" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A748" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B748" s="4" t="s">
+      <c r="A748" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B748" s="1" t="s">
         <v>1503</v>
       </c>
-      <c r="C748" s="4" t="s">
+      <c r="C748" s="1" t="s">
         <v>1504</v>
       </c>
     </row>
     <row r="749" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A749" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B749" s="4" t="s">
+      <c r="A749" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B749" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="C749" s="4" t="s">
+      <c r="C749" s="1" t="s">
         <v>1506</v>
       </c>
     </row>
     <row r="750" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A750" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B750" s="4" t="s">
+      <c r="A750" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B750" s="1" t="s">
         <v>1507</v>
       </c>
-      <c r="C750" s="4" t="s">
+      <c r="C750" s="1" t="s">
         <v>1508</v>
       </c>
     </row>
     <row r="751" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A751" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B751" s="4" t="s">
+      <c r="A751" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B751" s="1" t="s">
         <v>1509</v>
       </c>
-      <c r="C751" s="4" t="s">
+      <c r="C751" s="1" t="s">
         <v>1510</v>
       </c>
     </row>
     <row r="752" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A752" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B752" s="4" t="s">
+      <c r="A752" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B752" s="1" t="s">
         <v>1511</v>
       </c>
-      <c r="C752" s="4" t="s">
+      <c r="C752" s="1" t="s">
         <v>1512</v>
       </c>
     </row>
     <row r="753" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A753" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B753" s="4" t="s">
+      <c r="A753" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B753" s="1" t="s">
         <v>1513</v>
       </c>
-      <c r="C753" s="4" t="s">
+      <c r="C753" s="1" t="s">
         <v>1514</v>
       </c>
     </row>
     <row r="754" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A754" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B754" s="4" t="s">
+      <c r="A754" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B754" s="1" t="s">
         <v>1515</v>
       </c>
-      <c r="C754" s="4" t="s">
+      <c r="C754" s="1" t="s">
         <v>1516</v>
       </c>
     </row>
     <row r="755" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A755" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B755" s="4" t="s">
+      <c r="A755" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B755" s="1" t="s">
         <v>1517</v>
       </c>
-      <c r="C755" s="4" t="s">
+      <c r="C755" s="1" t="s">
         <v>1518</v>
       </c>
     </row>
     <row r="756" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A756" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B756" s="4" t="s">
+      <c r="A756" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B756" s="1" t="s">
         <v>1519</v>
       </c>
-      <c r="C756" s="4" t="s">
+      <c r="C756" s="1" t="s">
         <v>1520</v>
       </c>
     </row>
     <row r="757" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A757" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B757" s="4" t="s">
+      <c r="A757" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B757" s="1" t="s">
         <v>1521</v>
       </c>
-      <c r="C757" s="4" t="s">
+      <c r="C757" s="1" t="s">
         <v>1522</v>
       </c>
     </row>
     <row r="758" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A758" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B758" s="4" t="s">
+      <c r="A758" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B758" s="1" t="s">
         <v>1523</v>
       </c>
-      <c r="C758" s="4" t="s">
+      <c r="C758" s="1" t="s">
         <v>1524</v>
       </c>
     </row>
     <row r="759" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A759" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B759" s="4" t="s">
+      <c r="A759" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B759" s="1" t="s">
         <v>1525</v>
       </c>
-      <c r="C759" s="4" t="s">
+      <c r="C759" s="1" t="s">
         <v>1526</v>
       </c>
     </row>
     <row r="760" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A760" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B760" s="4" t="s">
+      <c r="A760" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B760" s="1" t="s">
         <v>1527</v>
       </c>
-      <c r="C760" s="4" t="s">
+      <c r="C760" s="1" t="s">
         <v>1528</v>
       </c>
     </row>
     <row r="761" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A761" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B761" s="4" t="s">
+      <c r="A761" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B761" s="1" t="s">
         <v>1529</v>
       </c>
-      <c r="C761" s="4" t="s">
+      <c r="C761" s="1" t="s">
         <v>1530</v>
       </c>
     </row>
     <row r="762" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A762" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B762" s="4" t="s">
+      <c r="A762" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B762" s="1" t="s">
         <v>1531</v>
       </c>
-      <c r="C762" s="4" t="s">
+      <c r="C762" s="1" t="s">
         <v>1532</v>
       </c>
     </row>
     <row r="763" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A763" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B763" s="4" t="s">
+      <c r="A763" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B763" s="1" t="s">
         <v>1533</v>
       </c>
-      <c r="C763" s="4" t="s">
+      <c r="C763" s="1" t="s">
         <v>1534</v>
       </c>
     </row>
     <row r="764" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A764" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B764" s="4" t="s">
+      <c r="A764" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B764" s="1" t="s">
         <v>1535</v>
       </c>
-      <c r="C764" s="4" t="s">
+      <c r="C764" s="1" t="s">
         <v>1536</v>
       </c>
     </row>
     <row r="765" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A765" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B765" s="4" t="s">
+      <c r="A765" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B765" s="1" t="s">
         <v>1537</v>
       </c>
-      <c r="C765" s="4" t="s">
+      <c r="C765" s="1" t="s">
         <v>1538</v>
       </c>
     </row>
     <row r="766" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A766" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B766" s="4" t="s">
+      <c r="A766" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B766" s="1" t="s">
         <v>1539</v>
       </c>
-      <c r="C766" s="4" t="s">
+      <c r="C766" s="1" t="s">
         <v>1540</v>
       </c>
     </row>
     <row r="767" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A767" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B767" s="4" t="s">
+      <c r="A767" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B767" s="1" t="s">
         <v>1541</v>
       </c>
-      <c r="C767" s="4" t="s">
+      <c r="C767" s="1" t="s">
         <v>1542</v>
       </c>
     </row>
     <row r="768" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A768" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B768" s="4" t="s">
+      <c r="A768" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B768" s="1" t="s">
         <v>1543</v>
       </c>
-      <c r="C768" s="4" t="s">
+      <c r="C768" s="1" t="s">
         <v>1544</v>
       </c>
     </row>
     <row r="769" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A769" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B769" s="4" t="s">
+      <c r="A769" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B769" s="1" t="s">
         <v>1545</v>
       </c>
-      <c r="C769" s="4" t="s">
+      <c r="C769" s="1" t="s">
         <v>1546</v>
       </c>
     </row>
     <row r="770" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A770" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B770" s="4" t="s">
+      <c r="A770" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B770" s="1" t="s">
         <v>1547</v>
       </c>
-      <c r="C770" s="4" t="s">
+      <c r="C770" s="1" t="s">
         <v>1548</v>
       </c>
     </row>
     <row r="771" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A771" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B771" s="4" t="s">
+      <c r="A771" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B771" s="1" t="s">
         <v>1549</v>
       </c>
-      <c r="C771" s="4" t="s">
+      <c r="C771" s="1" t="s">
         <v>1550</v>
       </c>
     </row>
     <row r="772" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A772" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B772" s="4" t="s">
+      <c r="A772" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B772" s="1" t="s">
         <v>1551</v>
       </c>
-      <c r="C772" s="4" t="s">
+      <c r="C772" s="1" t="s">
         <v>1552</v>
       </c>
     </row>
     <row r="773" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A773" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B773" s="4" t="s">
+      <c r="A773" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B773" s="1" t="s">
         <v>1553</v>
       </c>
-      <c r="C773" s="4" t="s">
+      <c r="C773" s="1" t="s">
         <v>1554</v>
       </c>
     </row>
     <row r="774" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A774" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B774" s="4" t="s">
+      <c r="A774" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B774" s="1" t="s">
         <v>1555</v>
       </c>
-      <c r="C774" s="4" t="s">
+      <c r="C774" s="1" t="s">
         <v>1556</v>
       </c>
     </row>
     <row r="775" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A775" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B775" s="4" t="s">
+      <c r="A775" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B775" s="1" t="s">
         <v>1557</v>
       </c>
-      <c r="C775" s="4" t="s">
+      <c r="C775" s="1" t="s">
         <v>1558</v>
       </c>
     </row>
     <row r="776" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A776" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B776" s="4" t="s">
+      <c r="A776" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B776" s="1" t="s">
         <v>1559</v>
       </c>
-      <c r="C776" s="4" t="s">
+      <c r="C776" s="1" t="s">
         <v>1560</v>
       </c>
     </row>
     <row r="777" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A777" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B777" s="4" t="s">
+      <c r="A777" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B777" s="1" t="s">
         <v>1561</v>
       </c>
-      <c r="C777" s="4" t="s">
+      <c r="C777" s="1" t="s">
         <v>1562</v>
       </c>
     </row>
     <row r="778" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A778" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B778" s="4" t="s">
+      <c r="A778" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B778" s="1" t="s">
         <v>1563</v>
       </c>
-      <c r="C778" s="4" t="s">
+      <c r="C778" s="1" t="s">
         <v>1564</v>
       </c>
     </row>
     <row r="779" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A779" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B779" s="4" t="s">
+      <c r="A779" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B779" s="1" t="s">
         <v>1565</v>
       </c>
-      <c r="C779" s="4" t="s">
+      <c r="C779" s="1" t="s">
         <v>1566</v>
       </c>
     </row>
     <row r="780" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A780" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B780" s="4" t="s">
+      <c r="A780" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B780" s="1" t="s">
         <v>1567</v>
       </c>
-      <c r="C780" s="4" t="s">
+      <c r="C780" s="1" t="s">
         <v>1568</v>
       </c>
     </row>
     <row r="781" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A781" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B781" s="4" t="s">
+      <c r="A781" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B781" s="1" t="s">
         <v>1569</v>
       </c>
-      <c r="C781" s="4" t="s">
+      <c r="C781" s="1" t="s">
         <v>1570</v>
       </c>
     </row>
     <row r="782" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A782" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B782" s="4" t="s">
+      <c r="A782" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B782" s="1" t="s">
         <v>1571</v>
       </c>
-      <c r="C782" s="4" t="s">
+      <c r="C782" s="1" t="s">
         <v>1572</v>
       </c>
     </row>
     <row r="783" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A783" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B783" s="4" t="s">
+      <c r="A783" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B783" s="1" t="s">
         <v>1573</v>
       </c>
-      <c r="C783" s="4" t="s">
+      <c r="C783" s="1" t="s">
         <v>1574</v>
       </c>
     </row>
     <row r="784" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A784" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B784" s="4" t="s">
+      <c r="A784" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B784" s="1" t="s">
         <v>1575</v>
       </c>
-      <c r="C784" s="4" t="s">
+      <c r="C784" s="1" t="s">
         <v>1576</v>
       </c>
     </row>
     <row r="785" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A785" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B785" s="4" t="s">
+      <c r="A785" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B785" s="1" t="s">
         <v>1577</v>
       </c>
-      <c r="C785" s="4" t="s">
+      <c r="C785" s="1" t="s">
         <v>1578</v>
       </c>
     </row>
     <row r="786" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A786" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B786" s="4" t="s">
+      <c r="A786" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B786" s="1" t="s">
         <v>1579</v>
       </c>
-      <c r="C786" s="4" t="s">
+      <c r="C786" s="1" t="s">
         <v>1580</v>
       </c>
     </row>
     <row r="787" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A787" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B787" s="4" t="s">
+      <c r="A787" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B787" s="1" t="s">
         <v>1581</v>
       </c>
-      <c r="C787" s="4" t="s">
+      <c r="C787" s="1" t="s">
         <v>1582</v>
       </c>
     </row>
     <row r="788" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A788" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B788" s="4" t="s">
+      <c r="A788" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B788" s="1" t="s">
         <v>1583</v>
       </c>
-      <c r="C788" s="4" t="s">
+      <c r="C788" s="1" t="s">
         <v>1584</v>
       </c>
     </row>
     <row r="789" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A789" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B789" s="4" t="s">
+      <c r="A789" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B789" s="1" t="s">
         <v>1585</v>
       </c>
-      <c r="C789" s="4" t="s">
+      <c r="C789" s="1" t="s">
         <v>1586</v>
       </c>
     </row>
     <row r="790" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A790" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B790" s="4" t="s">
+      <c r="A790" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B790" s="1" t="s">
         <v>1587</v>
       </c>
-      <c r="C790" s="4" t="s">
+      <c r="C790" s="1" t="s">
         <v>1588</v>
       </c>
     </row>
     <row r="791" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A791" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B791" s="4" t="s">
+      <c r="A791" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B791" s="1" t="s">
         <v>1589</v>
       </c>
-      <c r="C791" s="4" t="s">
+      <c r="C791" s="1" t="s">
         <v>1590</v>
       </c>
     </row>
     <row r="792" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A792" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B792" s="4" t="s">
+      <c r="A792" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B792" s="1" t="s">
         <v>1591</v>
       </c>
-      <c r="C792" s="4" t="s">
+      <c r="C792" s="1" t="s">
         <v>1592</v>
       </c>
     </row>
     <row r="793" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A793" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B793" s="4" t="s">
+      <c r="A793" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B793" s="1" t="s">
         <v>1593</v>
       </c>
-      <c r="C793" s="4" t="s">
+      <c r="C793" s="1" t="s">
         <v>1594</v>
       </c>
     </row>
     <row r="794" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A794" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B794" s="4" t="s">
+      <c r="A794" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B794" s="1" t="s">
         <v>1595</v>
       </c>
-      <c r="C794" s="4" t="s">
+      <c r="C794" s="1" t="s">
         <v>1596</v>
       </c>
     </row>
     <row r="795" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A795" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B795" s="4" t="s">
+      <c r="A795" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B795" s="1" t="s">
         <v>1597</v>
       </c>
-      <c r="C795" s="4" t="s">
+      <c r="C795" s="1" t="s">
         <v>1598</v>
       </c>
     </row>
     <row r="796" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A796" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B796" s="4" t="s">
+      <c r="A796" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B796" s="1" t="s">
         <v>1599</v>
       </c>
-      <c r="C796" s="4" t="s">
+      <c r="C796" s="1" t="s">
         <v>1600</v>
       </c>
     </row>
     <row r="797" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A797" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B797" s="4" t="s">
+      <c r="A797" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B797" s="1" t="s">
         <v>1601</v>
       </c>
-      <c r="C797" s="4" t="s">
+      <c r="C797" s="1" t="s">
         <v>1602</v>
       </c>
     </row>
     <row r="798" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A798" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B798" s="4" t="s">
+      <c r="A798" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B798" s="1" t="s">
         <v>1603</v>
       </c>
-      <c r="C798" s="4" t="s">
+      <c r="C798" s="1" t="s">
         <v>1604</v>
       </c>
     </row>
     <row r="799" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A799" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B799" s="4" t="s">
+      <c r="A799" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B799" s="1" t="s">
         <v>1605</v>
       </c>
-      <c r="C799" s="4" t="s">
+      <c r="C799" s="1" t="s">
         <v>1606</v>
       </c>
     </row>
     <row r="800" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A800" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B800" s="4" t="s">
+      <c r="A800" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B800" s="1" t="s">
         <v>1607</v>
       </c>
-      <c r="C800" s="4" t="s">
+      <c r="C800" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="801" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A801" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B801" s="4" t="s">
+      <c r="A801" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B801" s="1" t="s">
         <v>1609</v>
       </c>
-      <c r="C801" s="4" t="s">
+      <c r="C801" s="1" t="s">
         <v>1610</v>
       </c>
     </row>
     <row r="802" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A802" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B802" s="4" t="s">
+      <c r="A802" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B802" s="1" t="s">
         <v>1611</v>
       </c>
-      <c r="C802" s="4" t="s">
+      <c r="C802" s="1" t="s">
         <v>1612</v>
       </c>
     </row>
     <row r="803" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A803" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B803" s="4" t="s">
+      <c r="A803" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B803" s="1" t="s">
         <v>1613</v>
       </c>
-      <c r="C803" s="4" t="s">
+      <c r="C803" s="1" t="s">
         <v>1614</v>
       </c>
     </row>
     <row r="804" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A804" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B804" s="4" t="s">
+      <c r="A804" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B804" s="1" t="s">
         <v>1615</v>
       </c>
-      <c r="C804" s="4" t="s">
+      <c r="C804" s="1" t="s">
         <v>1616</v>
       </c>
     </row>
     <row r="805" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A805" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B805" s="4" t="s">
+      <c r="A805" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B805" s="1" t="s">
         <v>1617</v>
       </c>
-      <c r="C805" s="4" t="s">
+      <c r="C805" s="1" t="s">
         <v>1618</v>
       </c>
     </row>
     <row r="806" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A806" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B806" s="4" t="s">
+      <c r="A806" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B806" s="1" t="s">
         <v>1619</v>
       </c>
-      <c r="C806" s="4" t="s">
+      <c r="C806" s="1" t="s">
         <v>1620</v>
       </c>
     </row>
     <row r="807" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A807" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B807" s="4" t="s">
+      <c r="A807" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B807" s="1" t="s">
         <v>1621</v>
       </c>
-      <c r="C807" s="4" t="s">
+      <c r="C807" s="1" t="s">
         <v>1622</v>
       </c>
     </row>
     <row r="808" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A808" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B808" s="4" t="s">
+      <c r="A808" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B808" s="1" t="s">
         <v>1623</v>
       </c>
-      <c r="C808" s="4" t="s">
+      <c r="C808" s="1" t="s">
         <v>1624</v>
       </c>
     </row>
     <row r="809" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A809" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B809" s="4" t="s">
+      <c r="A809" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B809" s="1" t="s">
         <v>1625</v>
       </c>
-      <c r="C809" s="4" t="s">
+      <c r="C809" s="1" t="s">
         <v>1626</v>
       </c>
     </row>
     <row r="810" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A810" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B810" s="4" t="s">
+      <c r="A810" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B810" s="1" t="s">
         <v>1627</v>
       </c>
-      <c r="C810" s="4" t="s">
+      <c r="C810" s="1" t="s">
         <v>1628</v>
       </c>
     </row>
     <row r="811" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A811" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B811" s="4" t="s">
+      <c r="A811" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B811" s="1" t="s">
         <v>1629</v>
       </c>
-      <c r="C811" s="4" t="s">
+      <c r="C811" s="1" t="s">
         <v>1630</v>
       </c>
     </row>
     <row r="812" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A812" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B812" s="4" t="s">
+      <c r="A812" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B812" s="1" t="s">
         <v>1631</v>
       </c>
-      <c r="C812" s="4" t="s">
+      <c r="C812" s="1" t="s">
         <v>1632</v>
       </c>
     </row>
     <row r="813" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A813" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B813" s="4" t="s">
+      <c r="A813" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B813" s="1" t="s">
         <v>1633</v>
       </c>
-      <c r="C813" s="4" t="s">
+      <c r="C813" s="1" t="s">
         <v>1634</v>
       </c>
     </row>
     <row r="814" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A814" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B814" s="4" t="s">
+      <c r="A814" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B814" s="1" t="s">
         <v>1635</v>
       </c>
-      <c r="C814" s="4" t="s">
+      <c r="C814" s="1" t="s">
         <v>1636</v>
       </c>
     </row>
     <row r="815" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A815" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B815" s="4" t="s">
+      <c r="A815" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B815" s="1" t="s">
         <v>1637</v>
       </c>
-      <c r="C815" s="4" t="s">
+      <c r="C815" s="1" t="s">
         <v>1638</v>
       </c>
     </row>
     <row r="816" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A816" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B816" s="4" t="s">
+      <c r="A816" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B816" s="1" t="s">
         <v>1639</v>
       </c>
-      <c r="C816" s="4" t="s">
+      <c r="C816" s="1" t="s">
         <v>1640</v>
       </c>
     </row>
     <row r="817" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A817" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B817" s="4" t="s">
+      <c r="A817" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B817" s="1" t="s">
         <v>1641</v>
       </c>
-      <c r="C817" s="4" t="s">
+      <c r="C817" s="1" t="s">
         <v>1642</v>
       </c>
     </row>
     <row r="818" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A818" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B818" s="4" t="s">
+      <c r="A818" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B818" s="1" t="s">
         <v>1643</v>
       </c>
-      <c r="C818" s="4" t="s">
+      <c r="C818" s="1" t="s">
         <v>1644</v>
       </c>
     </row>
     <row r="819" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A819" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B819" s="4" t="s">
+      <c r="A819" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B819" s="1" t="s">
         <v>1645</v>
       </c>
-      <c r="C819" s="4" t="s">
+      <c r="C819" s="1" t="s">
         <v>1646</v>
       </c>
     </row>
     <row r="820" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A820" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B820" s="4" t="s">
+      <c r="A820" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B820" s="1" t="s">
         <v>1647</v>
       </c>
-      <c r="C820" s="4" t="s">
+      <c r="C820" s="1" t="s">
         <v>1648</v>
       </c>
     </row>
     <row r="821" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A821" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B821" s="4" t="s">
+      <c r="A821" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B821" s="1" t="s">
         <v>1649</v>
       </c>
-      <c r="C821" s="4" t="s">
+      <c r="C821" s="1" t="s">
         <v>1650</v>
       </c>
     </row>
     <row r="822" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A822" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B822" s="4" t="s">
+      <c r="A822" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B822" s="1" t="s">
         <v>1651</v>
       </c>
-      <c r="C822" s="4" t="s">
+      <c r="C822" s="1" t="s">
         <v>1652</v>
       </c>
     </row>
     <row r="823" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A823" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B823" s="4" t="s">
+      <c r="A823" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B823" s="1" t="s">
         <v>1653</v>
       </c>
-      <c r="C823" s="4" t="s">
+      <c r="C823" s="1" t="s">
         <v>1654</v>
       </c>
     </row>
     <row r="824" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A824" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B824" s="4" t="s">
+      <c r="A824" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B824" s="1" t="s">
         <v>1655</v>
       </c>
-      <c r="C824" s="4" t="s">
+      <c r="C824" s="1" t="s">
         <v>1656</v>
       </c>
     </row>
     <row r="825" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A825" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B825" s="4" t="s">
+      <c r="A825" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B825" s="1" t="s">
         <v>1657</v>
       </c>
-      <c r="C825" s="4" t="s">
+      <c r="C825" s="1" t="s">
         <v>1658</v>
       </c>
     </row>
     <row r="826" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A826" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B826" s="4" t="s">
+      <c r="A826" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B826" s="1" t="s">
         <v>1659</v>
       </c>
-      <c r="C826" s="4" t="s">
+      <c r="C826" s="1" t="s">
         <v>1660</v>
       </c>
     </row>
     <row r="827" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A827" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B827" s="4" t="s">
+      <c r="A827" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B827" s="1" t="s">
         <v>1661</v>
       </c>
-      <c r="C827" s="4" t="s">
+      <c r="C827" s="1" t="s">
         <v>1662</v>
       </c>
-    </row>
-    <row r="828" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B828" s="3"/>
-      <c r="C828" s="3"/>
-    </row>
-    <row r="829" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B829" s="3"/>
-      <c r="C829" s="3"/>
-    </row>
-    <row r="830" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B830" s="3"/>
-      <c r="C830" s="3"/>
-    </row>
-    <row r="831" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B831" s="3"/>
-      <c r="C831" s="3"/>
-    </row>
-    <row r="832" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B832" s="3"/>
-      <c r="C832" s="3"/>
-    </row>
-    <row r="833" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B833" s="3"/>
-      <c r="C833" s="3"/>
-    </row>
-    <row r="834" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B834" s="3"/>
-      <c r="C834" s="3"/>
-    </row>
-    <row r="835" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B835" s="3"/>
-      <c r="C835" s="3"/>
-    </row>
-    <row r="836" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B836" s="3"/>
-      <c r="C836" s="3"/>
-    </row>
-    <row r="837" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B837" s="3"/>
-      <c r="C837" s="3"/>
-    </row>
-    <row r="838" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B838" s="3"/>
-      <c r="C838" s="3"/>
-    </row>
-    <row r="839" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B839" s="3"/>
-      <c r="C839" s="3"/>
-    </row>
-    <row r="840" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B840" s="3"/>
-      <c r="C840" s="3"/>
-    </row>
-    <row r="841" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B841" s="3"/>
-      <c r="C841" s="3"/>
-    </row>
-    <row r="842" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B842" s="3"/>
-      <c r="C842" s="3"/>
-    </row>
-    <row r="843" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B843" s="3"/>
-      <c r="C843" s="3"/>
-    </row>
-    <row r="844" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B844" s="3"/>
-      <c r="C844" s="3"/>
-    </row>
-    <row r="845" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B845" s="3"/>
-      <c r="C845" s="3"/>
-    </row>
-    <row r="846" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B846" s="3"/>
-      <c r="C846" s="3"/>
-    </row>
-    <row r="847" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B847" s="3"/>
-      <c r="C847" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
